--- a/스프링작업자료/Mapper/mapper기능정리.xlsx
+++ b/스프링작업자료/Mapper/mapper기능정리.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="354">
   <si>
     <t>default sysdate</t>
   </si>
@@ -1535,6 +1535,22 @@
   </si>
   <si>
     <t>email, passwd -&gt; 1(일치) 0(불일치)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>현재 사용하는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 곳 없어서 삭제</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1576,7 +1592,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1598,6 +1614,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1688,7 +1710,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1715,9 +1737,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1801,6 +1820,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2272,7 +2300,7 @@
   <dimension ref="A2:M110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2291,89 +2319,91 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="25" t="s">
         <v>284</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14" t="s">
+      <c r="H2" s="12"/>
+      <c r="I2" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="25" t="s">
         <v>340</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="15" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="37" t="s">
         <v>127</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="G4" s="35">
+      <c r="D4" s="37"/>
+      <c r="E4" s="39" t="s">
+        <v>353</v>
+      </c>
+      <c r="G4" s="34">
         <v>1</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="16" t="s">
         <v>352</v>
       </c>
     </row>
@@ -2387,24 +2417,24 @@
       <c r="C5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="G5" s="35">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="G5" s="34">
         <v>2</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="18" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2420,22 +2450,22 @@
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="G6" s="35">
+      <c r="G6" s="34">
         <v>3</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="16" t="s">
         <v>350</v>
       </c>
     </row>
@@ -2455,22 +2485,22 @@
       <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="34">
         <v>4</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="19" t="s">
         <v>337</v>
       </c>
     </row>
@@ -2490,22 +2520,22 @@
       <c r="E8" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="35">
         <v>5</v>
       </c>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="21" t="s">
         <v>335</v>
       </c>
     </row>
@@ -2525,22 +2555,22 @@
       <c r="E9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="34">
         <v>6</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="K9" s="21" t="s">
         <v>331</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="16" t="s">
         <v>332</v>
       </c>
     </row>
@@ -2558,22 +2588,22 @@
       <c r="E10" s="5">
         <v>19880913</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="34">
         <v>7</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="16" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2606,25 +2636,25 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>155</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14" t="s">
+      <c r="H13" s="12"/>
+      <c r="I13" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="25" t="s">
         <v>341</v>
       </c>
     </row>
@@ -2642,22 +2672,22 @@
       <c r="E14" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="H14" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="K14" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="L14" s="16" t="s">
+      <c r="L14" s="15" t="s">
         <v>137</v>
       </c>
       <c r="M14" s="6"/>
@@ -2679,19 +2709,19 @@
       <c r="G15" s="4">
         <v>1</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="I15" s="18" t="s">
+      <c r="I15" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="J15" s="18" t="s">
+      <c r="J15" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="K15" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="16" t="s">
         <v>178</v>
       </c>
       <c r="M15" s="6"/>
@@ -2701,83 +2731,83 @@
       <c r="G16" s="4">
         <v>2</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="J16" s="17" t="s">
+      <c r="J16" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="K16" s="22" t="s">
+      <c r="K16" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="L16" s="19" t="s">
+      <c r="L16" s="18" t="s">
         <v>179</v>
       </c>
       <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="2"/>
       <c r="G17" s="4">
         <v>3</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="17" t="s">
         <v>294</v>
       </c>
-      <c r="J17" s="18" t="s">
+      <c r="J17" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="K17" s="22" t="s">
+      <c r="K17" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="L17" s="19" t="s">
+      <c r="L17" s="18" t="s">
         <v>180</v>
       </c>
       <c r="M17" s="6"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="20">
         <v>4</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="I18" s="22" t="s">
+      <c r="I18" s="21" t="s">
         <v>315</v>
       </c>
-      <c r="J18" s="22" t="s">
+      <c r="J18" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="K18" s="22" t="s">
+      <c r="K18" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="L18" s="23" t="s">
+      <c r="L18" s="22" t="s">
         <v>181</v>
       </c>
       <c r="M18" s="6"/>
@@ -2798,12 +2828,12 @@
       <c r="E19" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10" t="s">
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9" t="s">
         <v>182</v>
       </c>
       <c r="M19" s="6"/>
@@ -2827,19 +2857,19 @@
       <c r="G20" s="4">
         <v>5</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="H20" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="I20" s="17" t="s">
+      <c r="I20" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="J20" s="17" t="s">
+      <c r="J20" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="K20" s="17" t="s">
+      <c r="K20" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="L20" s="17" t="s">
+      <c r="L20" s="16" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2859,12 +2889,12 @@
       <c r="E21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="25"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="24"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
@@ -2880,14 +2910,14 @@
         <v>107</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="G22" s="26" t="s">
+      <c r="G22" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="H22" s="13"/>
-      <c r="I22" s="14" t="s">
+      <c r="H22" s="12"/>
+      <c r="I22" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="J22" s="26" t="s">
+      <c r="J22" s="25" t="s">
         <v>342</v>
       </c>
       <c r="K22" s="2"/>
@@ -2905,22 +2935,22 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="J23" s="15" t="s">
+      <c r="J23" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="K23" s="16" t="s">
+      <c r="K23" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="L23" s="16" t="s">
+      <c r="L23" s="15" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2936,22 +2966,22 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="G24" s="21">
+      <c r="G24" s="20">
         <v>1</v>
       </c>
-      <c r="H24" s="22" t="s">
+      <c r="H24" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="I24" s="22" t="s">
+      <c r="I24" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="J24" s="22" t="s">
+      <c r="J24" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="K24" s="22" t="s">
+      <c r="K24" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="L24" s="22" t="s">
+      <c r="L24" s="21" t="s">
         <v>225</v>
       </c>
     </row>
@@ -2960,81 +2990,81 @@
       <c r="G25" s="4">
         <v>2</v>
       </c>
-      <c r="H25" s="17" t="s">
+      <c r="H25" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="I25" s="17" t="s">
+      <c r="I25" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="J25" s="17" t="s">
+      <c r="J25" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="K25" s="22" t="s">
+      <c r="K25" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="L25" s="19" t="s">
+      <c r="L25" s="18" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>31</v>
       </c>
       <c r="D26" s="2"/>
       <c r="G26" s="4">
         <v>3</v>
       </c>
-      <c r="H26" s="17" t="s">
+      <c r="H26" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="I26" s="18" t="s">
+      <c r="I26" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="J26" s="18" t="s">
+      <c r="J26" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="K26" s="22" t="s">
+      <c r="K26" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="L26" s="19" t="s">
+      <c r="L26" s="18" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="10" t="s">
         <v>119</v>
       </c>
       <c r="G27" s="4">
         <v>4</v>
       </c>
-      <c r="H27" s="30" t="s">
+      <c r="H27" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="I27" s="30" t="s">
+      <c r="I27" s="29" t="s">
         <v>311</v>
       </c>
-      <c r="J27" s="17" t="s">
+      <c r="J27" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="K27" s="17" t="s">
+      <c r="K27" s="16" t="s">
         <v>196</v>
       </c>
-      <c r="L27" s="17" t="s">
+      <c r="L27" s="16" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3052,22 +3082,22 @@
       <c r="E28" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G28" s="32">
+      <c r="G28" s="31">
         <v>5</v>
       </c>
-      <c r="H28" s="30" t="s">
+      <c r="H28" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="I28" s="30" t="s">
+      <c r="I28" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="J28" s="30" t="s">
+      <c r="J28" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="K28" s="17" t="s">
+      <c r="K28" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="L28" s="17" t="s">
+      <c r="L28" s="16" t="s">
         <v>229</v>
       </c>
     </row>
@@ -3098,14 +3128,14 @@
       <c r="E30" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G30" s="26" t="s">
+      <c r="G30" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="14" t="s">
+      <c r="H30" s="12"/>
+      <c r="I30" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="J30" s="26" t="s">
+      <c r="J30" s="25" t="s">
         <v>343</v>
       </c>
       <c r="K30" s="2"/>
@@ -3123,22 +3153,22 @@
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="I31" s="15" t="s">
+      <c r="I31" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="J31" s="15" t="s">
+      <c r="J31" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="K31" s="16" t="s">
+      <c r="K31" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="L31" s="16" t="s">
+      <c r="L31" s="15" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3157,52 +3187,52 @@
       <c r="G32" s="4">
         <v>1</v>
       </c>
-      <c r="H32" s="27" t="s">
+      <c r="H32" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="I32" s="27" t="s">
+      <c r="I32" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="J32" s="29" t="s">
+      <c r="J32" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="K32" s="22" t="s">
+      <c r="K32" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="L32" s="27" t="s">
+      <c r="L32" s="26" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="16" t="s">
         <v>157</v>
       </c>
       <c r="D33" s="4"/>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="16" t="s">
         <v>164</v>
       </c>
       <c r="G33" s="4">
         <v>2</v>
       </c>
-      <c r="H33" s="17" t="s">
+      <c r="H33" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="I33" s="18" t="s">
+      <c r="I33" s="17" t="s">
         <v>297</v>
       </c>
-      <c r="J33" s="18" t="s">
+      <c r="J33" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="K33" s="22" t="s">
+      <c r="K33" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="L33" s="17" t="s">
+      <c r="L33" s="16" t="s">
         <v>204</v>
       </c>
     </row>
@@ -3210,58 +3240,58 @@
       <c r="A34" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="16" t="s">
         <v>158</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="4"/>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="20">
         <v>3</v>
       </c>
-      <c r="H34" s="22" t="s">
+      <c r="H34" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="I34" s="22" t="s">
+      <c r="I34" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="J34" s="22" t="s">
+      <c r="J34" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="K34" s="25" t="s">
+      <c r="K34" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="L34" s="22" t="s">
+      <c r="L34" s="21" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="16" t="s">
         <v>159</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="28" t="s">
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="27" t="s">
         <v>210</v>
       </c>
       <c r="K35" s="2"/>
-      <c r="L35" s="10"/>
+      <c r="L35" s="9"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="16" t="s">
         <v>160</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3274,45 +3304,45 @@
       <c r="E36" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="20">
         <v>4</v>
       </c>
-      <c r="H36" s="22" t="s">
+      <c r="H36" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="I36" s="22" t="s">
+      <c r="I36" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="J36" s="22" t="s">
+      <c r="J36" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="K36" s="22" t="s">
+      <c r="K36" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="L36" s="22" t="s">
+      <c r="L36" s="21" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="37" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="16" t="s">
         <v>218</v>
       </c>
       <c r="D37" s="4"/>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="G37" s="10"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="31" t="s">
+      <c r="G37" s="9"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="30" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3333,19 +3363,19 @@
       <c r="G38" s="4">
         <v>5</v>
       </c>
-      <c r="H38" s="30" t="s">
+      <c r="H38" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="I38" s="30" t="s">
+      <c r="I38" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="J38" s="17" t="s">
+      <c r="J38" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="K38" s="22" t="s">
+      <c r="K38" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="L38" s="17" t="s">
+      <c r="L38" s="16" t="s">
         <v>252</v>
       </c>
     </row>
@@ -3361,79 +3391,79 @@
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="G39" s="32">
+      <c r="G39" s="31">
         <v>6</v>
       </c>
-      <c r="H39" s="30" t="s">
+      <c r="H39" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="I39" s="30" t="s">
+      <c r="I39" s="29" t="s">
         <v>312</v>
       </c>
-      <c r="J39" s="30" t="s">
+      <c r="J39" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="K39" s="17" t="s">
+      <c r="K39" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="L39" s="17" t="s">
+      <c r="L39" s="16" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D40" s="2"/>
-      <c r="G40" s="32">
+      <c r="G40" s="31">
         <v>7</v>
       </c>
-      <c r="H40" s="30" t="s">
+      <c r="H40" s="29" t="s">
         <v>237</v>
       </c>
-      <c r="I40" s="30" t="s">
+      <c r="I40" s="29" t="s">
         <v>313</v>
       </c>
-      <c r="J40" s="30" t="s">
+      <c r="J40" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="K40" s="17" t="s">
+      <c r="K40" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="L40" s="17" t="s">
+      <c r="L40" s="16" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="12" t="s">
         <v>41</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="G42" s="26" t="s">
+      <c r="G42" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="H42" s="13"/>
-      <c r="I42" s="14" t="s">
+      <c r="H42" s="12"/>
+      <c r="I42" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="J42" s="26" t="s">
+      <c r="J42" s="25" t="s">
         <v>344</v>
       </c>
       <c r="K42" s="2"/>
@@ -3455,22 +3485,22 @@
       <c r="E43" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="G43" s="15" t="s">
+      <c r="G43" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H43" s="15" t="s">
+      <c r="H43" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="I43" s="15" t="s">
+      <c r="I43" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="J43" s="15" t="s">
+      <c r="J43" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="K43" s="16" t="s">
+      <c r="K43" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="L43" s="16" t="s">
+      <c r="L43" s="15" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3493,19 +3523,19 @@
       <c r="G44" s="4">
         <v>1</v>
       </c>
-      <c r="H44" s="17" t="s">
+      <c r="H44" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="I44" s="17" t="s">
+      <c r="I44" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="J44" s="17" t="s">
+      <c r="J44" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="K44" s="17" t="s">
+      <c r="K44" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="L44" s="17" t="s">
+      <c r="L44" s="16" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3528,19 +3558,19 @@
       <c r="G45" s="4">
         <v>2</v>
       </c>
-      <c r="H45" s="17" t="s">
+      <c r="H45" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="I45" s="17" t="s">
+      <c r="I45" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="J45" s="17" t="s">
+      <c r="J45" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="K45" s="17" t="s">
+      <c r="K45" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="L45" s="17" t="s">
+      <c r="L45" s="16" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3563,19 +3593,19 @@
       <c r="G46" s="4">
         <v>3</v>
       </c>
-      <c r="H46" s="17" t="s">
+      <c r="H46" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="I46" s="17" t="s">
+      <c r="I46" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="J46" s="17" t="s">
+      <c r="J46" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="K46" s="17" t="s">
+      <c r="K46" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="L46" s="17" t="s">
+      <c r="L46" s="16" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3593,22 +3623,22 @@
         <v>107</v>
       </c>
       <c r="E47" s="4"/>
-      <c r="G47" s="32">
+      <c r="G47" s="31">
         <v>4</v>
       </c>
-      <c r="H47" s="30" t="s">
+      <c r="H47" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="I47" s="18" t="s">
+      <c r="I47" s="17" t="s">
         <v>295</v>
       </c>
-      <c r="J47" s="17" t="s">
+      <c r="J47" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="K47" s="17" t="s">
+      <c r="K47" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="L47" s="17" t="s">
+      <c r="L47" s="16" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3626,22 +3656,22 @@
         <v>107</v>
       </c>
       <c r="E48" s="4"/>
-      <c r="G48" s="32">
+      <c r="G48" s="31">
         <v>5</v>
       </c>
-      <c r="H48" s="30" t="s">
+      <c r="H48" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="I48" s="30" t="s">
+      <c r="I48" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="J48" s="17" t="s">
+      <c r="J48" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="K48" s="17" t="s">
+      <c r="K48" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="L48" s="17" t="s">
+      <c r="L48" s="16" t="s">
         <v>231</v>
       </c>
     </row>
@@ -3662,102 +3692,102 @@
       <c r="G49" s="4">
         <v>6</v>
       </c>
-      <c r="H49" s="17" t="s">
+      <c r="H49" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="I49" s="17" t="s">
+      <c r="I49" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="J49" s="17" t="s">
+      <c r="J49" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="K49" s="17" t="s">
+      <c r="K49" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="L49" s="17" t="s">
+      <c r="L49" s="16" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D50" s="2"/>
-      <c r="G50" s="32">
+      <c r="G50" s="31">
         <v>7</v>
       </c>
-      <c r="H50" s="30" t="s">
+      <c r="H50" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="I50" s="30" t="s">
+      <c r="I50" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="J50" s="30" t="s">
+      <c r="J50" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="K50" s="17" t="s">
+      <c r="K50" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="L50" s="30" t="s">
+      <c r="L50" s="29" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D51" s="2"/>
-      <c r="G51" s="32">
+      <c r="G51" s="31">
         <v>8</v>
       </c>
-      <c r="H51" s="30" t="s">
+      <c r="H51" s="29" t="s">
         <v>255</v>
       </c>
-      <c r="I51" s="30" t="s">
+      <c r="I51" s="29" t="s">
         <v>304</v>
       </c>
-      <c r="J51" s="30" t="s">
+      <c r="J51" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="K51" s="17" t="s">
+      <c r="K51" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="L51" s="30" t="s">
+      <c r="L51" s="29" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="G52" s="32">
+      <c r="G52" s="31">
         <v>9</v>
       </c>
-      <c r="H52" s="30" t="s">
+      <c r="H52" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="I52" s="30" t="s">
+      <c r="I52" s="29" t="s">
         <v>305</v>
       </c>
-      <c r="J52" s="30" t="s">
+      <c r="J52" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="K52" s="17" t="s">
+      <c r="K52" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="L52" s="30" t="s">
+      <c r="L52" s="29" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3799,14 +3829,14 @@
       <c r="E54" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G54" s="26" t="s">
+      <c r="G54" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="H54" s="13"/>
-      <c r="I54" s="14" t="s">
+      <c r="H54" s="12"/>
+      <c r="I54" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="J54" s="26" t="s">
+      <c r="J54" s="25" t="s">
         <v>345</v>
       </c>
       <c r="K54" s="2"/>
@@ -3828,22 +3858,22 @@
       <c r="E55" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G55" s="15" t="s">
+      <c r="G55" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H55" s="15" t="s">
+      <c r="H55" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="I55" s="15" t="s">
+      <c r="I55" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="J55" s="15" t="s">
+      <c r="J55" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="K55" s="16" t="s">
+      <c r="K55" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="L55" s="16" t="s">
+      <c r="L55" s="15" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3863,22 +3893,22 @@
       <c r="E56" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G56" s="21">
+      <c r="G56" s="20">
         <v>1</v>
       </c>
-      <c r="H56" s="22" t="s">
+      <c r="H56" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="I56" s="22" t="s">
+      <c r="I56" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="J56" s="22" t="s">
+      <c r="J56" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="K56" s="22" t="s">
+      <c r="K56" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="L56" s="22" t="s">
+      <c r="L56" s="21" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3898,12 +3928,12 @@
       <c r="E57" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19" t="s">
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3921,22 +3951,22 @@
         <v>107</v>
       </c>
       <c r="E58" s="4"/>
-      <c r="G58" s="21">
+      <c r="G58" s="20">
         <v>2</v>
       </c>
-      <c r="H58" s="22" t="s">
+      <c r="H58" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="I58" s="22" t="s">
+      <c r="I58" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="J58" s="22" t="s">
+      <c r="J58" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="K58" s="22" t="s">
+      <c r="K58" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="L58" s="22" t="s">
+      <c r="L58" s="21" t="s">
         <v>243</v>
       </c>
     </row>
@@ -3954,12 +3984,12 @@
         <v>107</v>
       </c>
       <c r="E59" s="4"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19" t="s">
+      <c r="G59" s="9"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3978,19 +4008,19 @@
       <c r="G60" s="4">
         <v>3</v>
       </c>
-      <c r="H60" s="17" t="s">
+      <c r="H60" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="I60" s="22" t="s">
+      <c r="I60" s="21" t="s">
         <v>317</v>
       </c>
-      <c r="J60" s="17" t="s">
+      <c r="J60" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="K60" s="22" t="s">
+      <c r="K60" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="L60" s="17" t="s">
+      <c r="L60" s="16" t="s">
         <v>246</v>
       </c>
     </row>
@@ -4006,22 +4036,22 @@
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="G61" s="32">
+      <c r="G61" s="31">
         <v>4</v>
       </c>
-      <c r="H61" s="30" t="s">
+      <c r="H61" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="I61" s="22" t="s">
+      <c r="I61" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="J61" s="17" t="s">
+      <c r="J61" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="K61" s="25" t="s">
+      <c r="K61" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="L61" s="17" t="s">
+      <c r="L61" s="16" t="s">
         <v>251</v>
       </c>
     </row>
@@ -4039,22 +4069,22 @@
       <c r="E62" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G62" s="33">
+      <c r="G62" s="32">
         <v>5</v>
       </c>
-      <c r="H62" s="22" t="s">
+      <c r="H62" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="I62" s="22" t="s">
+      <c r="I62" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="J62" s="22" t="s">
+      <c r="J62" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="K62" s="22" t="s">
+      <c r="K62" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="L62" s="22" t="s">
+      <c r="L62" s="21" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4072,12 +4102,12 @@
       <c r="E63" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G63" s="10"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="19" t="s">
+      <c r="G63" s="9"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="18" t="s">
         <v>253</v>
       </c>
     </row>
@@ -4095,7 +4125,7 @@
       <c r="E64" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G64" s="24"/>
+      <c r="G64" s="23"/>
       <c r="H64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
@@ -4113,14 +4143,14 @@
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
-      <c r="G65" s="26" t="s">
+      <c r="G65" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="H65" s="26"/>
-      <c r="I65" s="14" t="s">
+      <c r="H65" s="25"/>
+      <c r="I65" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="J65" s="37" t="s">
+      <c r="J65" s="36" t="s">
         <v>346</v>
       </c>
       <c r="K65" s="2"/>
@@ -4132,84 +4162,84 @@
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
-      <c r="G66" s="15" t="s">
+      <c r="G66" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H66" s="15" t="s">
+      <c r="H66" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="I66" s="15" t="s">
+      <c r="I66" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="J66" s="15" t="s">
+      <c r="J66" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="K66" s="16" t="s">
+      <c r="K66" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="L66" s="16" t="s">
+      <c r="L66" s="15" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="13" t="s">
         <v>160</v>
       </c>
       <c r="D67" s="2"/>
       <c r="G67" s="4">
         <v>1</v>
       </c>
-      <c r="H67" s="17" t="s">
+      <c r="H67" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="I67" s="17" t="s">
+      <c r="I67" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="J67" s="17" t="s">
+      <c r="J67" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="K67" s="17" t="s">
+      <c r="K67" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="L67" s="17" t="s">
+      <c r="L67" s="16" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="68" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="D68" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E68" s="11" t="s">
+      <c r="E68" s="10" t="s">
         <v>119</v>
       </c>
       <c r="G68" s="4">
         <v>2</v>
       </c>
-      <c r="H68" s="17" t="s">
+      <c r="H68" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="I68" s="17" t="s">
+      <c r="I68" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="J68" s="17" t="s">
+      <c r="J68" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="K68" s="17" t="s">
+      <c r="K68" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="L68" s="17" t="s">
+      <c r="L68" s="16" t="s">
         <v>267</v>
       </c>
     </row>
@@ -4232,19 +4262,19 @@
       <c r="G69" s="4">
         <v>3</v>
       </c>
-      <c r="H69" s="17" t="s">
+      <c r="H69" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="I69" s="17" t="s">
+      <c r="I69" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="J69" s="17" t="s">
+      <c r="J69" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="K69" s="17" t="s">
+      <c r="K69" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="L69" s="17" t="s">
+      <c r="L69" s="16" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4264,22 +4294,22 @@
       <c r="E70" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G70" s="32">
+      <c r="G70" s="31">
         <v>4</v>
       </c>
-      <c r="H70" s="17" t="s">
+      <c r="H70" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="I70" s="17" t="s">
+      <c r="I70" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="J70" s="17" t="s">
+      <c r="J70" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="K70" s="17" t="s">
+      <c r="K70" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="L70" s="17" t="s">
+      <c r="L70" s="16" t="s">
         <v>272</v>
       </c>
     </row>
@@ -4299,12 +4329,12 @@
       <c r="E71" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G71" s="24"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="24"/>
-      <c r="L71" s="25" t="s">
+      <c r="G71" s="23"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="33"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="23"/>
+      <c r="L71" s="24" t="s">
         <v>271</v>
       </c>
     </row>
@@ -4322,14 +4352,14 @@
         <v>107</v>
       </c>
       <c r="E72" s="4"/>
-      <c r="G72" s="13" t="s">
+      <c r="G72" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="H72" s="26"/>
-      <c r="I72" s="14" t="s">
+      <c r="H72" s="25"/>
+      <c r="I72" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="J72" s="37" t="s">
+      <c r="J72" s="36" t="s">
         <v>347</v>
       </c>
       <c r="K72" s="2"/>
@@ -4349,22 +4379,22 @@
         <v>107</v>
       </c>
       <c r="E73" s="4"/>
-      <c r="G73" s="15" t="s">
+      <c r="G73" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="H73" s="15" t="s">
+      <c r="H73" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="I73" s="15" t="s">
+      <c r="I73" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="J73" s="15" t="s">
+      <c r="J73" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="K73" s="16" t="s">
+      <c r="K73" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="L73" s="16" t="s">
+      <c r="L73" s="15" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4383,19 +4413,19 @@
       <c r="G74" s="4">
         <v>1</v>
       </c>
-      <c r="H74" s="17" t="s">
+      <c r="H74" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="I74" s="17" t="s">
+      <c r="I74" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="J74" s="17" t="s">
+      <c r="J74" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="K74" s="17" t="s">
+      <c r="K74" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="L74" s="17" t="s">
+      <c r="L74" s="16" t="s">
         <v>281</v>
       </c>
     </row>
@@ -4414,19 +4444,19 @@
       <c r="G75" s="4">
         <v>2</v>
       </c>
-      <c r="H75" s="17" t="s">
+      <c r="H75" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="I75" s="17" t="s">
+      <c r="I75" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="J75" s="17" t="s">
+      <c r="J75" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="K75" s="17" t="s">
+      <c r="K75" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="L75" s="17" t="s">
+      <c r="L75" s="16" t="s">
         <v>282</v>
       </c>
     </row>
@@ -4445,50 +4475,50 @@
       <c r="G76" s="4">
         <v>3</v>
       </c>
-      <c r="H76" s="17" t="s">
+      <c r="H76" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="I76" s="17" t="s">
+      <c r="I76" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="J76" s="17" t="s">
+      <c r="J76" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="K76" s="17" t="s">
+      <c r="K76" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="L76" s="17" t="s">
+      <c r="L76" s="16" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" s="17" t="s">
+      <c r="A77" s="16" t="s">
         <v>161</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="C77" s="16" t="s">
         <v>162</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
-      <c r="G77" s="32">
+      <c r="G77" s="31">
         <v>4</v>
       </c>
-      <c r="H77" s="17" t="s">
+      <c r="H77" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="I77" s="17" t="s">
+      <c r="I77" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="J77" s="17" t="s">
+      <c r="J77" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="K77" s="17" t="s">
+      <c r="K77" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="L77" s="17" t="s">
+      <c r="L77" s="16" t="s">
         <v>280</v>
       </c>
     </row>
@@ -4506,12 +4536,12 @@
         <v>107</v>
       </c>
       <c r="E78" s="4"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24"/>
-      <c r="K78" s="24"/>
-      <c r="L78" s="24"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="23"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="23"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
@@ -4546,10 +4576,10 @@
       <c r="L80" s="6"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="13" t="s">
+      <c r="A81" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="12" t="s">
         <v>129</v>
       </c>
       <c r="D81" s="2"/>
@@ -4561,19 +4591,19 @@
       <c r="L81" s="6"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D82" s="12" t="s">
+      <c r="D82" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="E82" s="10" t="s">
         <v>119</v>
       </c>
       <c r="G82" s="6"/>
@@ -4670,28 +4700,28 @@
       <c r="E88" s="6"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A89" s="13" t="s">
+      <c r="A89" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B89" s="13" t="s">
+      <c r="B89" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="2"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C90" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D90" s="12" t="s">
+      <c r="D90" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E90" s="11" t="s">
+      <c r="E90" s="10" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4800,28 +4830,28 @@
       <c r="D98" s="2"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="13" t="s">
+      <c r="A99" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B99" s="13" t="s">
+      <c r="B99" s="12" t="s">
         <v>90</v>
       </c>
       <c r="D99" s="2"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="11" t="s">
+      <c r="A100" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="B100" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="C100" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="D100" s="12" t="s">
+      <c r="D100" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E100" s="11" t="s">
+      <c r="E100" s="10" t="s">
         <v>119</v>
       </c>
     </row>

--- a/스프링작업자료/Mapper/mapper기능정리.xlsx
+++ b/스프링작업자료/Mapper/mapper기능정리.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\카카오톡 받은 파일\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="11790" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="397">
   <si>
     <t>default sysdate</t>
   </si>
@@ -39,9 +35,6 @@
     <t>null 유무</t>
   </si>
   <si>
-    <t>defalut 1(배송전 : 1, 배송중 : 2, 배송완료 : 3)</t>
-  </si>
-  <si>
     <t>defalut 1(판매 : 1, 판매중단 : 2)</t>
   </si>
   <si>
@@ -336,9 +329,6 @@
     <t>VARCHAR(50)</t>
   </si>
   <si>
-    <t>defalut 1(주문대기 : 1, 주문완료 : 2)</t>
-  </si>
-  <si>
     <t>foreign key for adminmember(id)</t>
   </si>
   <si>
@@ -512,10 +502,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>email, prodnum, quantity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -572,10 +558,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>prodnum 검색 -&gt; url 주소로 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ordernum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -649,14 +631,6 @@
   </si>
   <si>
     <t>email, order_detail_state(2) 검색 -&gt; 구입완료 목록 리스트 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email, order_detail_state(2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1348,10 +1322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>defalut 1(주문전 : 1, 결제대기 : 2 결제완료:3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cart_order</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1429,14 +1399,106 @@
   </si>
   <si>
     <t>ordernum검색 -&gt; 삭제 -&gt; 장바구니에는 존재함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defalut 1(주문전 : 1, 주문대기 : 2 주문완료:3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prodnum 검색 -&gt; url 주소로 반환 (image컬럼 추가하여 필요없음)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로 구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, prodnum, quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, prodnum, quantity 검색 -&gt; 장바구니 안거치고 오더 테이블 삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result = 4 (바로구매 시) 최소하면 order 초기화 시 삭제 해야함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 이름, 이미지 값 가져와서 삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_now</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로 구매 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_nowdelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, result(4) 검색 -&gt; 데이터 삭제 -&gt; 구매창 취소 시 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defalut 1(배송전 : 1, 배송중 : 2, 배송완료:3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로구매:4,5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프라이머리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문처리번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2@a.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1463,6 +1525,14 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -1598,12 +1668,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1703,9 +1776,16 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -2174,8 +2254,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:M123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2197,99 +2277,99 @@
   <sheetData>
     <row r="2" spans="1:13">
       <c r="A2" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="J3" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="J3" s="7" t="s">
+      <c r="L3" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G4" s="11">
         <v>1</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
@@ -2297,30 +2377,30 @@
         <v>2</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L5" s="13" t="s">
         <v>137</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -2328,103 +2408,103 @@
         <v>3</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G7" s="11">
         <v>4</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G8" s="14">
         <v>5</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
@@ -2433,30 +2513,30 @@
         <v>6</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="16">
@@ -2466,133 +2546,133 @@
         <v>7</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="G13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="K13" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G14" s="19">
         <v>1</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="M14" s="17"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
@@ -2602,19 +2682,19 @@
         <v>2</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>154</v>
+        <v>377</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="M15" s="17"/>
     </row>
@@ -2625,16 +2705,16 @@
       <c r="J16" s="31"/>
       <c r="K16" s="31"/>
       <c r="L16" s="31" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="M16" s="17"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="13"/>
@@ -2642,269 +2722,269 @@
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
       <c r="L17" s="13" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="M17" s="17"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G18" s="19">
         <v>3</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="M18" s="17"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G19" s="19">
         <v>4</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M19" s="17"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G20" s="19">
         <v>5</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="G21" s="19">
         <v>6</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="J21" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E24" s="3"/>
       <c r="G24" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H24" s="7" t="s">
+      <c r="K24" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="I24" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="G25" s="21">
         <v>1</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="J25" s="15" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -2914,972 +2994,1089 @@
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="13" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G27" s="21">
         <v>2</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="I27" s="15" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J27" s="15" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="G28" s="3">
+      <c r="G28" s="19">
         <v>3</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="G29" s="3">
+      <c r="G29" s="19">
         <v>3</v>
       </c>
       <c r="H29" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="J29" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="L29" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="I29" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="K29" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="L29" s="13" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="G30" s="3">
+      <c r="G30" s="9">
         <v>4</v>
       </c>
-      <c r="H30" s="18" t="s">
+      <c r="H30" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="K30" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="I30" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>169</v>
+      <c r="L30" s="9" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G31" s="18">
         <v>5</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>189</v>
+        <v>376</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>252</v>
+        <v>381</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>156</v>
+        <v>377</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>136</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>191</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
+      </c>
+      <c r="G32" s="32"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
+      </c>
+      <c r="G33" s="23"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>348</v>
+        <v>342</v>
+      </c>
+      <c r="G34" s="18">
+        <v>5</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="J34" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>308</v>
+        <v>302</v>
+      </c>
+      <c r="G35" s="18">
+        <v>6</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="3" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>114</v>
+        <v>339</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E38" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>335</v>
-      </c>
       <c r="C39" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3" t="s">
-        <v>307</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="3" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3" t="s">
-        <v>366</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="3" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>92</v>
+        <v>329</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>123</v>
+        <v>330</v>
       </c>
       <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>1</v>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3" t="s">
+        <v>387</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="J43" s="6" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>111</v>
-      </c>
+      <c r="A44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
       <c r="G44" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="J44" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="K44" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="I44" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="J44" s="7" t="s">
+      <c r="L44" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="K44" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L44" s="8" t="s">
-        <v>129</v>
-      </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="G45" s="19">
         <v>1</v>
       </c>
       <c r="H45" s="20" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I45" s="20" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="J45" s="20" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="K45" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L45" s="20" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>351</v>
-      </c>
       <c r="G46" s="19">
         <v>2</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="K46" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>348</v>
-      </c>
       <c r="G47" s="19">
         <v>3</v>
       </c>
       <c r="H47" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="L47" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="I47" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="J47" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="K47" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>327</v>
-      </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>308</v>
+      <c r="A48" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="G48" s="19">
         <v>4</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K48" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="1:12">
-      <c r="A49" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>341</v>
+      <c r="A49" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="G49" s="21">
         <v>5</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I49" s="15" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="J49" s="15" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K49" s="22" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="L49" s="15" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="3" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E50" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="G50" s="23"/>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
       <c r="J50" s="24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L50" s="13"/>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="3" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E51" s="3"/>
+        <v>101</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>345</v>
+      </c>
       <c r="G51" s="21">
         <v>6</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I51" s="15" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="J51" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K51" s="15" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="L51" s="15" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="3" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>342</v>
+      </c>
       <c r="G52" s="19">
         <v>7</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I52" s="18" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="3" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="3" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D54" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="E54" s="3" t="s">
-        <v>8</v>
+        <v>335</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H54" s="4"/>
       <c r="I54" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="J54" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="3" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3" t="s">
-        <v>105</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" s="3"/>
       <c r="G55" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="J55" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="K55" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="I55" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="J55" s="7" t="s">
+      <c r="L55" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="K55" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L55" s="8" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="3" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>95</v>
+        <v>339</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D56" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="E56" s="3" t="s">
-        <v>6</v>
+        <v>340</v>
       </c>
       <c r="G56" s="3">
         <v>1</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="3" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="3"/>
+        <v>110</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>101</v>
+      </c>
       <c r="E57" s="3"/>
       <c r="G57" s="3">
         <v>2</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:12">
+      <c r="A58" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E58" s="3"/>
       <c r="G58" s="3">
         <v>3</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:12">
+      <c r="A59" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
       <c r="G59" s="18">
         <v>4</v>
       </c>
       <c r="H59" s="18" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:12">
+      <c r="A60" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
       <c r="G60" s="18">
         <v>5</v>
       </c>
       <c r="H60" s="18" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I60" s="18" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:12">
+      <c r="A61" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="G61" s="3">
         <v>6</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="62" spans="1:12">
+      <c r="A62" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3" t="s">
+        <v>386</v>
+      </c>
       <c r="G62" s="18">
         <v>7</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I62" s="18" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="J62" s="18" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L62" s="18" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:12">
+      <c r="A63" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3" t="s">
+        <v>359</v>
+      </c>
       <c r="G63" s="18">
         <v>8</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="I63" s="18" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="J63" s="18" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L63" s="18" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="1:12">
+      <c r="A64" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
       <c r="G64" s="18">
         <v>9</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="I64" s="18" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="J64" s="18" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L64" s="18" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="G66" s="6" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="J66" s="6" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="G67" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="J67" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H67" s="7" t="s">
+      <c r="K67" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="I67" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="J67" s="7" t="s">
+      <c r="L67" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="K67" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L67" s="8" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D68" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G68" s="15">
         <v>1</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="I68" s="15" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="J68" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K68" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L68" s="15" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G69" s="13"/>
       <c r="H69" s="13"/>
@@ -3887,18 +4084,18 @@
       <c r="J69" s="13"/>
       <c r="K69" s="13"/>
       <c r="L69" s="13" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -3906,34 +4103,34 @@
         <v>2</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="I70" s="15" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J70" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K70" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L70" s="15" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G71" s="13"/>
       <c r="H71" s="13"/>
@@ -3941,18 +4138,18 @@
       <c r="J71" s="13"/>
       <c r="K71" s="13"/>
       <c r="L71" s="13" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -3960,30 +4157,30 @@
         <v>3</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="I72" s="15" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="K72" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -3991,67 +4188,67 @@
         <v>4</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="I73" s="15" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="K73" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="3" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G74" s="25">
         <v>5</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="I74" s="15" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="J74" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="K74" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="L74" s="15" t="s">
         <v>204</v>
-      </c>
-      <c r="K74" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="L74" s="15" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G75" s="13"/>
       <c r="H75" s="24"/>
@@ -4059,176 +4256,176 @@
       <c r="J75" s="13"/>
       <c r="K75" s="13"/>
       <c r="L75" s="13" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G76" s="15">
         <v>6</v>
       </c>
       <c r="H76" s="25" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="I76" s="25" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="J76" s="25" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="K76" s="26" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="L76" s="25" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G77" s="13"/>
       <c r="H77" s="13"/>
       <c r="I77" s="13"/>
       <c r="J77" s="24" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="K77" s="27"/>
       <c r="L77" s="24" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G78" s="19">
         <v>7</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="J78" s="18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G79" s="19">
         <v>8</v>
       </c>
       <c r="H79" s="18" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="J79" s="18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
     </row>
     <row r="81" spans="1:12">
       <c r="G81" s="6" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H81" s="6"/>
       <c r="I81" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="J81" s="28" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="G82" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H82" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="J82" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H82" s="7" t="s">
+      <c r="K82" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="I82" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="J82" s="7" t="s">
+      <c r="L82" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="K82" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L82" s="8" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -4236,132 +4433,132 @@
         <v>1</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G84" s="3">
         <v>2</v>
       </c>
       <c r="H84" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L84" s="3" t="s">
         <v>219</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="K84" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="L84" s="3" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G85" s="3">
         <v>3</v>
       </c>
       <c r="H85" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="J85" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="I85" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>226</v>
-      </c>
       <c r="K85" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G86" s="18">
         <v>4</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G87" s="22"/>
       <c r="H87" s="26"/>
@@ -4369,119 +4566,119 @@
       <c r="J87" s="22"/>
       <c r="K87" s="22"/>
       <c r="L87" s="22" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E89" s="3"/>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E90" s="3"/>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="G91" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H91" s="6"/>
       <c r="I91" s="4" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="J91" s="28" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="G92" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H92" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="J92" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="H92" s="7" t="s">
+      <c r="K92" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="I92" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="J92" s="7" t="s">
+      <c r="L92" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="K92" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="L92" s="8" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -4489,30 +4686,30 @@
         <v>1</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -4520,63 +4717,63 @@
         <v>2</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E95" s="3"/>
       <c r="G95" s="3">
         <v>3</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -4584,19 +4781,19 @@
         <v>4</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4608,105 +4805,105 @@
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B102" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E102" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E103" s="3"/>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E104" s="3"/>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E105" s="3"/>
     </row>
@@ -4719,120 +4916,120 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B110" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C110" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="E110" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E111" s="3"/>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E112" s="3"/>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E113" s="3"/>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E114" s="3"/>
     </row>
@@ -4845,103 +5042,103 @@
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D118" s="8" t="s">
         <v>5</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B119" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C119" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="E119" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B120" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="E120" s="30"/>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B121" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D121" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="E121" s="3"/>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E122" s="3"/>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B123" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D123" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>102</v>
       </c>
       <c r="E123" s="3"/>
     </row>
@@ -4950,4 +5147,166 @@
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="33" t="s">
+        <v>393</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>389</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>392</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>391</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4:B8" r:id="rId2" display="2@a.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>
--- a/스프링작업자료/Mapper/mapper기능정리.xlsx
+++ b/스프링작업자료/Mapper/mapper기능정리.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="405">
   <si>
     <t>default sysdate</t>
   </si>
@@ -1418,38 +1418,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>email, prodnum, quantity 검색 -&gt; 장바구니 안거치고 오더 테이블 삽입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result = 4 (바로구매 시) 최소하면 order 초기화 시 삭제 해야함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 이름, 이미지 값 가져와서 삽입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>order_now</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>바로 구매 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_nowdelete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email, result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email, result(4) 검색 -&gt; 데이터 삭제 -&gt; 구매창 취소 시 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>defalut 1(배송전 : 1, 배송중 : 2, 배송완료:3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1491,6 +1463,65 @@
   </si>
   <si>
     <t>2@a.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니완료삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cart_redelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cart_tot</t>
+  </si>
+  <si>
+    <t>cartnum, result(3 이하) 검색 -&gt; 합계 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartnum, result(3) 검색 -&gt; 해당 상품 삭제 -&gt; 장바구니 창 열때 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 품목 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartnum검색 -&gt; result(1) 수정 -&gt; 장바구니에는 존재함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_tot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartnum, result(2) 검색 -&gt; 합계 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구메페이지합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, prodnum, quantity 검색 -&gt; result(2)로 삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2254,8 +2285,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:M123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2882,6 +2913,24 @@
         <v>101</v>
       </c>
       <c r="E22" s="3"/>
+      <c r="G22" s="19">
+        <v>7</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="3" t="s">
@@ -2899,15 +2948,23 @@
       <c r="E23" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>290</v>
+      <c r="G23" s="19">
+        <v>8</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2924,23 +2981,23 @@
         <v>101</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="G24" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>127</v>
+      <c r="G24" s="21">
+        <v>9</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2957,23 +3014,23 @@
       <c r="E25" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="G25" s="21">
-        <v>1</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>366</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>368</v>
+      <c r="G25" s="19">
+        <v>10</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>398</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="L25" s="15" t="s">
-        <v>367</v>
+        <v>136</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2988,13 +3045,23 @@
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
+      <c r="G26" s="19">
+        <v>11</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>153</v>
+      </c>
       <c r="L26" s="13" t="s">
-        <v>369</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -3011,23 +3078,23 @@
       <c r="E27" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="G27" s="21">
-        <v>2</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>363</v>
+      <c r="G27" s="19">
+        <v>12</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>377</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -3043,327 +3110,356 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="G28" s="19">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>372</v>
+        <v>402</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>259</v>
+        <v>400</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="K28" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="K28" s="3" t="s">
         <v>136</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="G29" s="19">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="K29" s="15" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>404</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="J32" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="K32" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="L29" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="G30" s="9">
-        <v>4</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="L30" s="9" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" s="18">
-        <v>5</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="I31" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="J31" s="18" t="s">
-        <v>377</v>
-      </c>
-      <c r="K31" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G32" s="32"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31" t="s">
-        <v>379</v>
+      <c r="L32" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="3" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="G33" s="23"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13" t="s">
-        <v>380</v>
+      <c r="E33" s="3" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="3" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>101</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="G34" s="18">
-        <v>5</v>
-      </c>
-      <c r="H34" s="18" t="s">
-        <v>382</v>
-      </c>
-      <c r="I34" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="J34" s="18" t="s">
-        <v>384</v>
-      </c>
-      <c r="K34" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>385</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>101</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="G35" s="18">
-        <v>6</v>
-      </c>
-      <c r="H35" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="J35" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>185</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="3" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>335</v>
+      <c r="E36" s="3"/>
+      <c r="G36" s="21">
+        <v>1</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="J36" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="L36" s="15" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="3" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>103</v>
+        <v>339</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="G37" s="23"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="3" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>339</v>
+        <v>89</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>340</v>
+      <c r="E38" s="3"/>
+      <c r="G38" s="21">
+        <v>2</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="3" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>101</v>
       </c>
       <c r="E39" s="3"/>
+      <c r="G39" s="19">
+        <v>3</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="3" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>112</v>
+        <v>329</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E40" s="3"/>
+        <v>330</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="G40" s="9">
+        <v>4</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="K40" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="L40" s="9" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>329</v>
+        <v>94</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>330</v>
+        <v>99</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3" t="s">
-        <v>301</v>
+        <v>359</v>
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+      <c r="A43" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>121</v>
+      </c>
       <c r="D43" s="3"/>
-      <c r="E43" s="3" t="s">
-        <v>387</v>
-      </c>
+      <c r="E43" s="3"/>
       <c r="G43" s="6" t="s">
         <v>168</v>
       </c>
@@ -3376,17 +3472,6 @@
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
       <c r="G44" s="7" t="s">
         <v>123</v>
       </c>
@@ -3906,7 +3991,7 @@
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="G62" s="18">
         <v>7</v>
@@ -5166,36 +5251,36 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="33" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="33" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5203,7 +5288,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -5220,7 +5305,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -5237,7 +5322,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -5254,7 +5339,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -5271,7 +5356,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -5288,7 +5373,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C8">
         <v>2</v>

--- a/스프링작업자료/Mapper/mapper기능정리.xlsx
+++ b/스프링작업자료/Mapper/mapper기능정리.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="471">
   <si>
     <t>default sysdate</t>
   </si>
@@ -499,10 +499,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상품이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>email, order_detail_state(2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -511,18 +507,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>prodnum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ordernum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>관리자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -595,10 +583,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>email, state, result 검색 -&gt; 주문완료 -&gt; 적립금 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>email 검색 -&gt; 적립금 조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -883,71 +867,654 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>review_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_score</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cart_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cart_insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email_review_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prod_review_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qna_update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, passwd 매칭 검색 -&gt; 정보 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email 검색 -&gt; name, passwd, id, birth, phone, address 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email 검색 -&gt; passwd 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pw_find</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberMapper(mysqlMember)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartMapper(mysqlCart)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderMapper(mysqlOrder)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productMapper(mysqlProduct)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminMapper(mysqlAdmin)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reviewMapper(mysqlReview)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email_find</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone 검색 -&gt; email 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, passwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, passwd -&gt; 1(일치) 0(불일치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary key(1씩 자동증가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defalut 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreign key for member(email)(cascade)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary key not null(cascade)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary key(1씩 자동증가)(cascade)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prodnum 검색 -&gt; Name price, content, detail, image 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prodnum 검색 -&gt; 상품 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, prodnum, rename,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content, grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수 항목 체크 후 DB 저장 -&gt; 등록 시 컨트롤러에서 리뷰 수, 리뷰점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업데이트 메퍼 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품조회(이름)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품조회(kind)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품조회(key)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prodnum_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prodnum 검색 -&gt; key값검색기능(상품디테일보기) -&gt; 상품 정보 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind 검색 -&gt; 장르별검색기능 -&gt; 상품 정보 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name 검색 -&gt; 문자열검색기능 -&gt; 상품 정보 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 등록 시 실행 -&gt; 리뷰 수 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 등록 시 실행 -&gt; 리뷰 점수 평균 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cart_delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartnum 검색 -&gt; 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email 검색 -&gt; prodnum, quantity, price, totalprice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용하지 않아서 삭제함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">price = product_price -&gt; 상품목록에서 가격 데이터 가져옴 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreign key for product(prodnum)(cascade)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prod_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prod 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(150)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url 형식으로 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defalut 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자, 앱 관련 정보 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -&gt; 1(수정) 0(수정불가) 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noticeMapper(mysqlNotice)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qnaMapper(mysqlQna)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">totalprice = quantity*price -&gt; 상품목록에서 가격 데이터 가져옴 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니품목수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cart_update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartnum, quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartnum 검색 -&gt; quantity 수정 totalprice 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cart_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartnum, result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartnum 검색 -&gt; result(2) 결제 대기 상태로 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, result(1,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, result(1,2) 검색 -&gt; 결제완료를 제외한 제품 리스트 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니초기화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cart_result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartnum, result(2) 검색 -&gt; result(1)로 수정 -&gt; 장바구니 창 열때 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, cart_result(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 대기상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 대기 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, result(2) 검색 -&gt; 주문 대기 목록 리스트 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로 구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, prodnum, quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_now</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defalut 1(배송전 : 1, 배송중 : 2, 배송완료:3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프라이머리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문처리번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2@a.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니완료삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cart_redelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cart_tot</t>
+  </si>
+  <si>
+    <t>cartnum, result(3 이하) 검색 -&gt; 합계 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartnum, result(3) 검색 -&gt; 해당 상품 삭제 -&gt; 장바구니 창 열때 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 품목 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>order_delete</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>prod_image</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_score</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cart_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cart_insert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email_review_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prod_review_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice_delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice_update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qna_update</t>
+    <t>cartnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartnum검색 -&gt; result(1) 수정 -&gt; 장바구니에는 존재함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_tot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartnum, result(2) 검색 -&gt; 합계 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구메페이지합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, prodnum, quantity 검색 -&gt; result(2)로 삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderidx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 작성 유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderdetailMapper(mysqlOrderDetail)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문상세번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품에 대한 데이터, detailnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique key(cascade)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique,foreign key for product(cartnum)(cascade)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreign key for product(prodnum)(cascade)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail_insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문금액조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호 detailnum 검색 -&gt; 주문 내역 제품 리스트 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호 detailnum 검색 -&gt; 주문 주문 금액 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문내역삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail_delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호 detailnum 검색 -&gt; 주문 내역 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문내역수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail_update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailnum, cartnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailnum, cartnum 검색 -&gt; 수정 (관리자전용으로 하는게 좋아보임)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverydate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문일자+3일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -955,19 +1522,211 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>주문 총 금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 처리 내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defalut 3(주문전 : 1, 결제대기: 2, 결제완료 : 3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defalut 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브론즈:5% 실버:10%, 골드:15%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">payprice </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인된 결제 금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송지 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payprice 의 1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카트에 담은 날자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 날자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defalut 1(작성전 : 1, 작성완료 : 2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_detail(detailnum)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saleprice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, detailnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">rankfunction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">salefunction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">payfunction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reservesfunction </t>
+  </si>
+  <si>
+    <t>계산 함수 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>email</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email, passwd 매칭 검색 -&gt; 정보 삭제</t>
+    <t>email, detailnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적립금추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적립금사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usereserves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addreserves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용한 적립금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적립한 적립금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defalut 0(총금액-할인내역-사용적립금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defalut 1(주문전 : 1, 주문대기 : 2 주문완료:3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참고사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result 값에 따른 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 리스트 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매내역페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rankfunction -&gt; 랭크별 할인 비율 계산 -&gt; 할인율 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salefunction -&gt; 랭크별 할인 금액 -&gt; 할인금액 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payfunction -&gt; 총 결제 금액 -&gt; 결제금액 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservesfunction -&gt; 적립금 금액 -&gt; 적립금 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result(상품처리내역), pay(결제방법)수정 - 관리자전용으로 하는게 좋아보임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserves_add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserves_use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문내역제품조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail_prod_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_detail_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문상세내역조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 상세 내역 리스트 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원주문내역조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -975,335 +1734,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email 검색 -&gt; name, passwd, id, birth, phone, address 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email 검색 -&gt; passwd 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pw_find</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파일명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memberMapper(mysqlMember)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cartMapper(mysqlCart)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderMapper(mysqlOrder)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>productMapper(mysqlProduct)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adminMapper(mysqlAdmin)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reviewMapper(mysqlReview)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email_find</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone 검색 -&gt; email 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email, passwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email, passwd -&gt; 1(일치) 0(불일치)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>primary key(1씩 자동증가)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defalut 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreign key for member(email)(cascade)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>primary key not null(cascade)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>primary key(1씩 자동증가)(cascade)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prodnum 검색 -&gt; Name price, content, detail, image 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prodnum 검색 -&gt; 상품 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_insert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email, prodnum, rename,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content, grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필수 항목 체크 후 DB 저장 -&gt; 등록 시 컨트롤러에서 리뷰 수, 리뷰점수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업데이트 메퍼 실행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품조회(이름)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품조회(kind)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품조회(key)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prodnum_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prodnum 검색 -&gt; key값검색기능(상품디테일보기) -&gt; 상품 정보 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind 검색 -&gt; 장르별검색기능 -&gt; 상품 정보 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name 검색 -&gt; 문자열검색기능 -&gt; 상품 정보 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 등록 시 실행 -&gt; 리뷰 수 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 등록 시 실행 -&gt; 리뷰 점수 평균 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cart_delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cartnum 검색 -&gt; 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총 금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email 검색 -&gt; prodnum, quantity, price, totalprice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용하지 않아서 삭제함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reserves</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">price = product_price -&gt; 상품목록에서 가격 데이터 가져옴 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreign key for product(prodnum)(cascade)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prod_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prod 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(150)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url 형식으로 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defalut 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자, 앱 관련 정보 제공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> -&gt; 1(수정) 0(수정불가) 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noticeMapper(mysqlNotice)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qnaMapper(mysqlQna)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">totalprice = quantity*price -&gt; 상품목록에서 가격 데이터 가져옴 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니품목수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cart_update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cartnum, quantity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cartnum 검색 -&gt; quantity 수정 totalprice 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cart_order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cartnum, result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cartnum 검색 -&gt; result(2) 결제 대기 상태로 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email, result(1,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email, result(1,2) 검색 -&gt; 결제완료를 제외한 제품 리스트 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니초기화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cart_result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cartnum, result(2) 검색 -&gt; result(1)로 수정 -&gt; 장바구니 창 열때 실행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email, cart_result(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 대기상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 초기화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cartnum, cart_result(2) 검색 -&gt; insert -&gt; 주문창 열때마다 실행</t>
+    <t>order_email_list</t>
+  </si>
+  <si>
+    <t>주문추가 -&gt; 할인율, 할인금액, 결제금액, 적립금 -&gt; 구매시 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문상세번호, 장바구니번호 -&gt; 키(detailnum, cartnum) -&gt; 구매시 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적립금내역 member 테이블에 추가하기 -&gt; 구매시 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적립금사용하여 member 테이블 금액 뺴기 -&gt; 구매시 실행</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1311,370 +1757,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cartnum가 같은 값이 존재할 경우 result 만 update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 대기 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email, result(2) 검색 -&gt; 주문 대기 목록 리스트 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ordernum검색 -&gt; 삭제 -&gt; 장바구니에는 존재함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defalut 1(주문전 : 1, 주문대기 : 2 주문완료:3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prodnum 검색 -&gt; url 주소로 반환 (image컬럼 추가하여 필요없음)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바로 구매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email, prodnum, quantity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_now</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defalut 1(배송전 : 1, 배송중 : 2, 배송완료:3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프라이머리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문처리번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>키</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2@a.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니완료삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cart_redelete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니합계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cart_tot</t>
-  </si>
-  <si>
-    <t>cartnum, result(3 이하) 검색 -&gt; 합계 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cartnum, result(3) 검색 -&gt; 해당 상품 삭제 -&gt; 장바구니 창 열때 실행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 품목 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cartnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cartnum검색 -&gt; result(1) 수정 -&gt; 장바구니에는 존재함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_tot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cartnum, result(2) 검색 -&gt; 합계 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구메페이지합계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email, prodnum, quantity 검색 -&gt; result(2)로 삽입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderidx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 인덱스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 작성 유무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderdetailMapper(mysqlOrderDetail)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문상세번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품에 대한 데이터, detailnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unique key(cascade)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unique,foreign key for product(cartnum)(cascade)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreign key for product(prodnum)(cascade)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문상세번호, 장바구니번호 -&gt; 키(detailnum, cartnum)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detail_insert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문내역조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detail_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문금액조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문번호 detailnum 검색 -&gt; 주문 내역 제품 리스트 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문번호 detailnum 검색 -&gt; 주문 주문 금액 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문적립금조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detail_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문번호 detailnum 검색 -&gt; 주문 주문 적립 금액 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detail_reserves</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문내역삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detail_delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문번호 detailnum 검색 -&gt; 주문 내역 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문내역수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detail_update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailnum, cartnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailnum, cartnum 검색 -&gt; 수정 (관리자전용으로 하는게 좋아보임)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자동 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverydate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문일자+3일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 총 금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 처리 내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defalut 3(주문전 : 1, 결제대기: 2, 결제완료 : 3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defalut 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>브론즈:5% 실버:10%, 골드:15%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">payprice </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>할인된 결제 금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송지 주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delivery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payprice 의 1%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카트에 담은 날자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 날자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defalut 1(작성전 : 1, 작성완료 : 2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_detail(detailnum)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>saleprice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>할인율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_insert</t>
+    <t>회원이 주문한 내력 조회 -&gt; result(1: 배송전, 2: 배송중, 3: 배송완료)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addreservesfunction</t>
+  </si>
+  <si>
+    <t>addreservesfunction -&gt; 현재적립금+결제적립금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subreservesfunction</t>
+  </si>
+  <si>
+    <t>subreservesfunction -&gt; 현재적립금+결제적립금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliveryfunction</t>
+  </si>
+  <si>
+    <t>deliveryfunction -&gt; result 값 검색 -&gt; 해당되는 detailnum 값 반환</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1722,7 +1826,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1759,14 +1863,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1857,6 +1955,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1866,7 +1977,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1972,13 +2083,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2451,10 +2568,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:M115"/>
+  <dimension ref="A2:M116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="I67" sqref="I67"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2467,7 +2584,7 @@
     <col min="6" max="6" width="0.875" style="5" customWidth="1"/>
     <col min="7" max="7" width="4.75" style="5" customWidth="1"/>
     <col min="8" max="8" width="15.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="14.625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17" style="5" customWidth="1"/>
     <col min="10" max="10" width="33.375" style="5" customWidth="1"/>
     <col min="11" max="11" width="8.125" style="5" customWidth="1"/>
     <col min="12" max="12" width="60.75" style="5" customWidth="1"/>
@@ -2482,14 +2599,14 @@
         <v>11</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -2515,7 +2632,7 @@
         <v>111</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>112</v>
@@ -2539,7 +2656,7 @@
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="G4" s="11">
         <v>1</v>
@@ -2548,16 +2665,16 @@
         <v>115</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -2579,7 +2696,7 @@
         <v>116</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>122</v>
@@ -2610,16 +2727,16 @@
         <v>118</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -2636,7 +2753,7 @@
         <v>89</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G7" s="11">
         <v>4</v>
@@ -2645,16 +2762,16 @@
         <v>117</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -2680,16 +2797,16 @@
         <v>125</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -2715,16 +2832,16 @@
         <v>119</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -2748,10 +2865,10 @@
         <v>120</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>139</v>
@@ -2788,19 +2905,19 @@
         <v>3</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>140</v>
@@ -2817,7 +2934,7 @@
         <v>111</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>112</v>
@@ -2834,32 +2951,32 @@
         <v>80</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G14" s="19">
         <v>1</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>139</v>
       </c>
       <c r="L14" s="20" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="M14" s="17"/>
     </row>
@@ -2881,19 +2998,19 @@
         <v>2</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>139</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="M15" s="17"/>
     </row>
@@ -2902,19 +3019,19 @@
         <v>3</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>139</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="M16" s="17"/>
     </row>
@@ -2929,19 +3046,19 @@
         <v>4</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>139</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="M17" s="17"/>
     </row>
@@ -2965,19 +3082,19 @@
         <v>5</v>
       </c>
       <c r="H18" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="L18" s="15" t="s">
         <v>158</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>159</v>
-      </c>
-      <c r="K18" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>161</v>
       </c>
       <c r="M18" s="17"/>
     </row>
@@ -2993,13 +3110,13 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="L19" s="13"/>
       <c r="M19" s="17"/>
@@ -3020,19 +3137,19 @@
         <v>6</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -3053,19 +3170,19 @@
         <v>7</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -3098,25 +3215,25 @@
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="J23" s="6" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>128</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>110</v>
@@ -3125,7 +3242,7 @@
         <v>111</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>112</v>
@@ -3142,14 +3259,14 @@
         <v>34</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G25" s="19">
         <v>1</v>
@@ -3158,16 +3275,16 @@
         <v>135</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>139</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -3182,7 +3299,7 @@
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G26" s="21">
         <v>2</v>
@@ -3191,16 +3308,16 @@
         <v>136</v>
       </c>
       <c r="I26" s="15" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="J26" s="15" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="K26" s="15" t="s">
         <v>123</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -3223,22 +3340,22 @@
       <c r="J27" s="31"/>
       <c r="K27" s="31"/>
       <c r="L27" s="31" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G28" s="23"/>
       <c r="H28" s="13"/>
@@ -3246,7 +3363,7 @@
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
       <c r="L28" s="13" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -3267,10 +3384,10 @@
         <v>3</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>137</v>
@@ -3279,7 +3396,7 @@
         <v>123</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -3298,19 +3415,19 @@
         <v>4</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>123</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -3323,19 +3440,19 @@
         <v>5</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -3349,19 +3466,19 @@
         <v>6</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="J32" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="L32" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -3384,19 +3501,19 @@
         <v>7</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>123</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -3413,25 +3530,25 @@
         <v>89</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G34" s="19">
         <v>8</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>123</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -3448,25 +3565,25 @@
         <v>89</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G35" s="21">
         <v>9</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="K35" s="15" t="s">
         <v>139</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -3483,25 +3600,25 @@
         <v>89</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G36" s="19">
         <v>10</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="K36" s="15" t="s">
         <v>123</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -3525,7 +3642,7 @@
         <v>147</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J37" s="12" t="s">
         <v>138</v>
@@ -3534,7 +3651,7 @@
         <v>140</v>
       </c>
       <c r="L37" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -3542,7 +3659,7 @@
         <v>34</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>13</v>
@@ -3551,25 +3668,25 @@
         <v>89</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G38" s="19">
         <v>12</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="I38" s="18" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="K38" s="15" t="s">
         <v>123</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -3590,34 +3707,48 @@
         <v>13</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>123</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>356</v>
+        <v>438</v>
+      </c>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="K40" s="39">
+        <v>1</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -3632,15 +3763,15 @@
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="G41" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>390</v>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="39">
+        <v>2</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -3648,32 +3779,24 @@
         <v>80</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K42" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="L42" s="8" t="s">
-        <v>114</v>
+        <v>280</v>
+      </c>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="39">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -3684,47 +3807,21 @@
         <v>82</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-      <c r="G43" s="19">
-        <v>1</v>
-      </c>
-      <c r="H43" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="I43" s="18" t="s">
-        <v>398</v>
-      </c>
-      <c r="J43" s="18" t="s">
-        <v>393</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>397</v>
-      </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G44" s="19">
-        <v>2</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>403</v>
+      <c r="G44" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -3734,23 +3831,23 @@
       <c r="B45" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G45" s="19">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>405</v>
+      <c r="G45" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="J45" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -3770,57 +3867,57 @@
         <v>96</v>
       </c>
       <c r="G46" s="19">
-        <v>5</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>391</v>
+        <v>1</v>
+      </c>
+      <c r="H46" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="I46" s="18" t="s">
+        <v>382</v>
+      </c>
+      <c r="J46" s="18" t="s">
+        <v>378</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>412</v>
+        <v>460</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="G47" s="19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>413</v>
+        <v>451</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>414</v>
+        <v>452</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>415</v>
+        <v>384</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>416</v>
+        <v>139</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>417</v>
+        <v>385</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -3837,7 +3934,25 @@
         <v>89</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>395</v>
+        <v>380</v>
+      </c>
+      <c r="G48" s="19">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -3854,17 +3969,25 @@
         <v>89</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>275</v>
+        <v>381</v>
+      </c>
+      <c r="G49" s="19">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -3881,23 +4004,23 @@
         <v>89</v>
       </c>
       <c r="E50" s="3"/>
-      <c r="G50" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="J50" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K50" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="L50" s="8" t="s">
-        <v>114</v>
+      <c r="G50" s="19">
+        <v>6</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -3905,7 +4028,7 @@
         <v>34</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>13</v>
@@ -3914,25 +4037,7 @@
         <v>89</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="G51" s="19">
-        <v>1</v>
-      </c>
-      <c r="H51" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="I51" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="J51" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>172</v>
+        <v>319</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -3949,6 +4054,16 @@
         <v>89</v>
       </c>
       <c r="E52" s="3"/>
+      <c r="G52" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
@@ -3964,6 +4079,24 @@
         <v>89</v>
       </c>
       <c r="E53" s="3"/>
+      <c r="G53" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="J53" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
@@ -3973,52 +4106,62 @@
         <v>140</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="G54" s="35">
+        <v>280</v>
+      </c>
+      <c r="G54" s="19">
         <v>1</v>
       </c>
-      <c r="H54" s="15" t="s">
-        <v>347</v>
+      <c r="H54" s="18" t="s">
+        <v>370</v>
       </c>
       <c r="I54" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="J54" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="K54" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="L54" s="15" t="s">
-        <v>349</v>
+        <v>429</v>
+      </c>
+      <c r="J54" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="G55" s="36"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13"/>
-      <c r="L55" s="13" t="s">
-        <v>351</v>
+        <v>417</v>
+      </c>
+      <c r="G55" s="38">
+        <v>2</v>
+      </c>
+      <c r="H55" s="35" t="s">
+        <v>426</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="J55" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -4029,47 +4172,39 @@
         <v>82</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="G56" s="35">
-        <v>2</v>
-      </c>
-      <c r="H56" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="I56" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="J56" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="K56" s="15" t="s">
-        <v>139</v>
+      <c r="G56" s="36"/>
+      <c r="H56" s="36"/>
+      <c r="I56" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="J56" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>353</v>
+        <v>445</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G57" s="37">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>354</v>
-      </c>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
       <c r="I57" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="K57" s="15" t="s">
-        <v>123</v>
+        <v>424</v>
+      </c>
+      <c r="J57" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>140</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>355</v>
+        <v>446</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -4079,23 +4214,19 @@
       <c r="B58" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G58" s="9">
-        <v>4</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="I58" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="J58" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="K58" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="L58" s="9" t="s">
-        <v>357</v>
+      <c r="G58" s="36"/>
+      <c r="H58" s="36"/>
+      <c r="I58" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="J58" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -4114,57 +4245,81 @@
       <c r="E59" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G59" s="5">
-        <v>4</v>
-      </c>
-      <c r="H59" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="I59" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="J59" s="5" t="s">
-        <v>391</v>
+      <c r="G59" s="36"/>
+      <c r="H59" s="36"/>
+      <c r="I59" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="J59" s="18" t="s">
+        <v>421</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>404</v>
+        <v>140</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>408</v>
+        <v>466</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
+      </c>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="J60" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>439</v>
+        <v>418</v>
+      </c>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="J61" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -4181,41 +4336,95 @@
         <v>89</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>287</v>
+        <v>281</v>
+      </c>
+      <c r="G62" s="19">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="J62" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>420</v>
+        <v>399</v>
+      </c>
+      <c r="G63" s="19">
+        <v>4</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="J63" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>423</v>
+        <v>402</v>
+      </c>
+      <c r="G64" s="19">
+        <v>5</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="J64" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -4223,14 +4432,32 @@
         <v>80</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="G65" s="19">
+        <v>6</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="J65" s="18" t="s">
         <v>428</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -4241,16 +4468,34 @@
         <v>99</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
-        <v>429</v>
+        <v>408</v>
+      </c>
+      <c r="G66" s="19">
+        <v>7</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="J66" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>99</v>
@@ -4260,131 +4505,125 @@
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>430</v>
+      <c r="A68" s="5" t="s">
+        <v>433</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>424</v>
+        <v>140</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>318</v>
+        <v>409</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>140</v>
+        <v>403</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>127</v>
+        <v>410</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>73</v>
+        <v>434</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>70</v>
+        <v>405</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>7</v>
+        <v>406</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>432</v>
+        <v>70</v>
       </c>
       <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
+      <c r="E72" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>433</v>
+        <v>83</v>
       </c>
       <c r="B73" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3" t="s">
-        <v>361</v>
+      <c r="C74" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="G76" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H76" s="4"/>
       <c r="I76" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A77" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="G77" s="7" t="s">
         <v>110</v>
       </c>
@@ -4392,7 +4631,7 @@
         <v>111</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J77" s="7" t="s">
         <v>112</v>
@@ -4405,55 +4644,31 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>289</v>
-      </c>
       <c r="G78" s="15">
         <v>1</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I78" s="15" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="J78" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K78" s="15" t="s">
         <v>139</v>
       </c>
       <c r="L78" s="15" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>287</v>
+      <c r="A79" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="G79" s="13"/>
       <c r="H79" s="13"/>
@@ -4461,33 +4676,33 @@
       <c r="J79" s="13"/>
       <c r="K79" s="13"/>
       <c r="L79" s="13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>320</v>
+      <c r="A80" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D80" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>96</v>
       </c>
       <c r="G80" s="15">
         <v>2</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I80" s="15" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="J80" s="15" t="s">
         <v>138</v>
@@ -4496,138 +4711,150 @@
         <v>139</v>
       </c>
       <c r="L80" s="15" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E81" s="3"/>
+      <c r="E81" s="1" t="s">
+        <v>283</v>
+      </c>
       <c r="G81" s="13"/>
       <c r="H81" s="13"/>
       <c r="I81" s="13"/>
       <c r="J81" s="13"/>
       <c r="K81" s="13"/>
       <c r="L81" s="13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E82" s="3"/>
+      <c r="E82" s="3" t="s">
+        <v>281</v>
+      </c>
       <c r="G82" s="3">
         <v>3</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I82" s="15" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K82" s="15" t="s">
         <v>139</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>314</v>
+      </c>
       <c r="G83" s="18">
         <v>4</v>
       </c>
       <c r="H83" s="18" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I83" s="15" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K83" s="22" t="s">
         <v>126</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D84" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="E84" s="3"/>
       <c r="G84" s="25">
         <v>5</v>
       </c>
       <c r="H84" s="15" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I84" s="15" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="J84" s="15" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K84" s="15" t="s">
         <v>126</v>
       </c>
       <c r="L84" s="15" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D85" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="E85" s="3"/>
       <c r="G85" s="13"/>
       <c r="H85" s="24"/>
@@ -4635,18 +4862,18 @@
       <c r="J85" s="13"/>
       <c r="K85" s="13"/>
       <c r="L85" s="13" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -4654,55 +4881,53 @@
         <v>6</v>
       </c>
       <c r="H86" s="25" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="I86" s="25" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="J86" s="25" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="K86" s="26" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L86" s="25" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A87" s="29" t="s">
-        <v>19</v>
+      <c r="A87" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>89</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="G87" s="13"/>
       <c r="H87" s="13"/>
       <c r="I87" s="13"/>
       <c r="J87" s="24" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K87" s="27"/>
       <c r="L87" s="24" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -4710,92 +4935,91 @@
         <v>7</v>
       </c>
       <c r="H88" s="18" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I88" s="18" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="J88" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K88" s="3" t="s">
         <v>140</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3"/>
       <c r="G89" s="19">
         <v>8</v>
       </c>
       <c r="H89" s="18" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="I89" s="18" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="J89" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>140</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>106</v>
-      </c>
+      <c r="A90" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E90" s="3"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A91" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>96</v>
-      </c>
+      <c r="A91" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3"/>
       <c r="G91" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H91" s="6"/>
       <c r="I91" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J91" s="28" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="G92" s="7" t="s">
         <v>110</v>
       </c>
@@ -4803,7 +5027,7 @@
         <v>111</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J92" s="7" t="s">
         <v>112</v>
@@ -4816,180 +5040,190 @@
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>91</v>
+      <c r="A93" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="G93" s="3">
         <v>1</v>
       </c>
       <c r="H93" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J93" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>203</v>
       </c>
       <c r="K93" s="3" t="s">
         <v>139</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E94" s="3"/>
+      <c r="A94" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D94" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="G94" s="3">
         <v>2</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>139</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>107</v>
+        <v>20</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E95" s="3"/>
+      <c r="E95" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="G95" s="3">
         <v>3</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K95" s="3" t="s">
         <v>126</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E96" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="G96" s="18">
         <v>4</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="K96" s="3" t="s">
         <v>126</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A97" s="17"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
+      <c r="A97" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E97" s="3"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A98" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E98" s="3"/>
       <c r="G98" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H98" s="6"/>
       <c r="I98" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J98" s="28" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A99" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B99" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>96</v>
-      </c>
+      <c r="A99" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E99" s="3"/>
       <c r="G99" s="7" t="s">
         <v>110</v>
       </c>
@@ -4997,7 +5231,7 @@
         <v>111</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J99" s="7" t="s">
         <v>112</v>
@@ -5010,182 +5244,182 @@
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>285</v>
-      </c>
+      <c r="A100" s="17"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
       <c r="G100" s="3">
         <v>1</v>
       </c>
       <c r="H100" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="J100" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>215</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>139</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>92</v>
+      <c r="A101" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="G101" s="3">
         <v>2</v>
       </c>
       <c r="H101" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="J101" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>139</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E102" s="3"/>
+      <c r="A102" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="G102" s="3">
         <v>3</v>
       </c>
       <c r="H102" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="J102" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>217</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>126</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E103" s="3"/>
+      <c r="E103" s="1" t="s">
+        <v>279</v>
+      </c>
       <c r="G103" s="18">
         <v>4</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="K103" s="3" t="s">
         <v>126</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E104" s="3"/>
+        <v>89</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="E105" s="3"/>
       <c r="G105" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H105" s="4"/>
       <c r="I105" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="J105" s="6" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E106" s="3"/>
       <c r="G106" s="7" t="s">
         <v>110</v>
       </c>
@@ -5193,7 +5427,7 @@
         <v>111</v>
       </c>
       <c r="I106" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J106" s="7" t="s">
         <v>112</v>
@@ -5206,12 +5440,19 @@
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>78</v>
-      </c>
+      <c r="A107" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E107" s="3"/>
       <c r="G107" s="3">
         <v>1</v>
       </c>
@@ -5219,34 +5460,32 @@
         <v>143</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K107" s="3" t="s">
         <v>139</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A108" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>96</v>
-      </c>
+      <c r="A108" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E108" s="3"/>
       <c r="G108" s="3">
         <v>2</v>
       </c>
@@ -5254,34 +5493,19 @@
         <v>144</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="K108" s="3" t="s">
         <v>139</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E109" s="30" t="s">
-        <v>84</v>
-      </c>
       <c r="G109" s="3">
         <v>3</v>
       </c>
@@ -5289,32 +5513,25 @@
         <v>145</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K109" s="3" t="s">
         <v>139</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A110" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E110" s="30"/>
+      <c r="A110" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="G110" s="18">
         <v>4</v>
       </c>
@@ -5322,65 +5539,69 @@
         <v>146</v>
       </c>
       <c r="I110" s="12" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="K110" s="3" t="s">
         <v>140</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A111" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E111" s="3"/>
+      <c r="A111" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="G111" s="18">
         <v>5</v>
       </c>
       <c r="H111" s="18" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I111" s="18" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="K111" s="3" t="s">
         <v>139</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E112" s="3"/>
+      <c r="E112" s="30" t="s">
+        <v>84</v>
+      </c>
       <c r="G112" s="3">
         <v>6</v>
       </c>
@@ -5388,92 +5609,141 @@
         <v>121</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="K112" s="3" t="s">
         <v>139</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E113" s="3"/>
+      <c r="E113" s="30"/>
       <c r="G113" s="18">
         <v>7</v>
       </c>
       <c r="H113" s="18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I113" s="18" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="J113" s="18" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K113" s="3" t="s">
         <v>140</v>
       </c>
       <c r="L113" s="18" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E114" s="3"/>
       <c r="G114" s="18">
         <v>8</v>
       </c>
       <c r="H114" s="18" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I114" s="18" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="J114" s="18" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K114" s="3" t="s">
         <v>139</v>
       </c>
       <c r="L114" s="18" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E115" s="3"/>
       <c r="G115" s="18">
         <v>9</v>
       </c>
       <c r="H115" s="18" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I115" s="18" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J115" s="18" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="K115" s="3" t="s">
         <v>126</v>
       </c>
       <c r="L115" s="18" t="s">
-        <v>197</v>
-      </c>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E116" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="G40:G42"/>
+    <mergeCell ref="G55:G61"/>
+    <mergeCell ref="H55:H61"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -5497,36 +5767,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="C1" s="33" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="C2" s="33" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="E2" s="33" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -5534,7 +5804,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -5551,7 +5821,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -5568,7 +5838,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -5585,7 +5855,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -5602,7 +5872,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -5619,7 +5889,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="C8">
         <v>2</v>

--- a/스프링작업자료/Mapper/mapper기능정리.xlsx
+++ b/스프링작업자료/Mapper/mapper기능정리.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="499">
   <si>
     <t>default sysdate</t>
   </si>
@@ -947,921 +947,961 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>productMapper(mysqlProduct)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adminMapper(mysqlAdmin)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email_find</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone 검색 -&gt; email 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, passwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, passwd -&gt; 1(일치) 0(불일치)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary key(1씩 자동증가)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defalut 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreign key for member(email)(cascade)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary key not null(cascade)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary key(1씩 자동증가)(cascade)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prodnum 검색 -&gt; Name price, content, detail, image 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prodnum 검색 -&gt; 상품 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, prodnum, rename,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content, grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수 항목 체크 후 DB 저장 -&gt; 등록 시 컨트롤러에서 리뷰 수, 리뷰점수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업데이트 메퍼 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품조회(이름)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품조회(kind)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품조회(key)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prodnum_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prodnum 검색 -&gt; key값검색기능(상품디테일보기) -&gt; 상품 정보 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kind 검색 -&gt; 장르별검색기능 -&gt; 상품 정보 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name 검색 -&gt; 문자열검색기능 -&gt; 상품 정보 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 등록 시 실행 -&gt; 리뷰 수 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 등록 시 실행 -&gt; 리뷰 점수 평균 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cart_delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartnum 검색 -&gt; 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email 검색 -&gt; prodnum, quantity, price, totalprice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">price = product_price -&gt; 상품목록에서 가격 데이터 가져옴 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreign key for product(prodnum)(cascade)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prod_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prod 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(150)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url 형식으로 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defalut 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자, 앱 관련 정보 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> -&gt; 1(수정) 0(수정불가) 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noticeMapper(mysqlNotice)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qnaMapper(mysqlQna)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">totalprice = quantity*price -&gt; 상품목록에서 가격 데이터 가져옴 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니품목수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cart_update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartnum, quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartnum 검색 -&gt; quantity 수정 totalprice 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cart_order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartnum, result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartnum 검색 -&gt; result(2) 결제 대기 상태로 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, result(1,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, result(1,2) 검색 -&gt; 결제완료를 제외한 제품 리스트 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니초기화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cart_result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartnum, result(2) 검색 -&gt; result(1)로 수정 -&gt; 장바구니 창 열때 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, cart_result(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 대기상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 대기 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, result(2) 검색 -&gt; 주문 대기 목록 리스트 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로 구매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, prodnum, quantity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_now</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defalut 1(배송전 : 1, 배송중 : 2, 배송완료:3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프라이머리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문처리번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2@a.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니완료삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cart_redelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cart_tot</t>
+  </si>
+  <si>
+    <t>cartnum, result(3 이하) 검색 -&gt; 합계 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartnum, result(3) 검색 -&gt; 해당 상품 삭제 -&gt; 장바구니 창 열때 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 품목 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartnum검색 -&gt; result(1) 수정 -&gt; 장바구니에는 존재함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_tot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartnum, result(2) 검색 -&gt; 합계 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, prodnum, quantity 검색 -&gt; result(2)로 삽입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderidx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 작성 유무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문상세번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품에 대한 데이터, detailnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>foreign key for product(prodnum)(cascade)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail_insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문금액조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호 detailnum 검색 -&gt; 주문 내역 제품 리스트 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호 detailnum 검색 -&gt; 주문 주문 금액 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문내역삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail_delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문번호 detailnum 검색 -&gt; 주문 내역 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문내역수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail_update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailnum, cartnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailnum, cartnum 검색 -&gt; 수정 (관리자전용으로 하는게 좋아보임)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliverydate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송일자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문일자+3일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 총 금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 처리 내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defalut 3(주문전 : 1, 결제대기: 2, 결제완료 : 3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브론즈:5% 실버:10%, 골드:15%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">payprice </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인된 결제 금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payprice 의 1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카트에 담은 날자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 날자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defalut 1(작성전 : 1, 작성완료 : 2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_detail(detailnum)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saleprice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, detailnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">rankfunction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">salefunction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">payfunction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reservesfunction </t>
+  </si>
+  <si>
+    <t>계산 함수 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, detailnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적립금추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적립금사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>usereserves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addreserves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용한 적립금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적립한 적립금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defalut 0(총금액-할인내역-사용적립금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defalut 1(주문전 : 1, 주문대기 : 2 주문완료:3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참고사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result 값에 따른 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 리스트 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매내역페이지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rankfunction -&gt; 랭크별 할인 비율 계산 -&gt; 할인율 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>salefunction -&gt; 랭크별 할인 금액 -&gt; 할인금액 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payfunction -&gt; 총 결제 금액 -&gt; 결제금액 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reservesfunction -&gt; 적립금 금액 -&gt; 적립금 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserves_add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reserves_use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문내역제품조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail_prod_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_detail_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문상세내역조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 상세 내역 리스트 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원주문내역조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_email_list</t>
+  </si>
+  <si>
+    <t>주문추가 -&gt; 할인율, 할인금액, 결제금액, 적립금 -&gt; 구매시 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문상세번호, 장바구니번호 -&gt; 키(detailnum, cartnum) -&gt; 구매시 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원이 주문한 내력 조회 -&gt; result(1: 배송전, 2: 배송중, 3: 배송완료)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addreservesfunction</t>
+  </si>
+  <si>
+    <t>addreservesfunction -&gt; 현재적립금+결제적립금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subreservesfunction</t>
+  </si>
+  <si>
+    <t>subreservesfunction -&gt; 현재적립금+결제적립금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deliveryfunction</t>
+  </si>
+  <si>
+    <t>deliveryfunction -&gt; result 값 검색 -&gt; 해당되는 detailnum 값 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지 qna</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary key(cascade)(책 코드 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(1000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comidx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 인덱스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique,foreign key for product(cartnum)(cascade)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique key(cascade)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unique,foreign key for product(prodnum)(cascade)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로시저생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, detailnum -&gt; 총결제금액, 적립금, 랭크변환 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적립금내역 member 테이블에 추가하기 -&gt; 이벤트용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적립금사용하여 member 테이블 금액 뺴기 -&gt; 제제시 사용?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 댓글추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 댓글 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 댓글 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 댓글 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commentMapper(mysqlComment)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드, 네이버, 카카오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경비실, 문앞, 무인택배함, 직접수령, 기타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문내역관리자수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문내역회원수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, detailnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result(상품처리내역), delivery 수정 - 관리자가 주문상태 배송상태 변경 시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address(배송지주소), request(요청사항) - 회원들이 수정할 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_update_admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_update_email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는분 전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송지 주소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는분 성함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_list_date</t>
+  </si>
+  <si>
+    <t>cartnum, result, usereserves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총금액, 할인율, 할인금액, 결제금액, 적립금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회필요데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매페이지합계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매 시 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderdetailMapper(mysqlOrderDetail)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>orderMapper(mysqlOrder)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>productMapper(mysqlProduct)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>adminMapper(mysqlAdmin)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reviewMapper(mysqlReview)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>email_find</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone 검색 -&gt; email 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email, passwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email, passwd -&gt; 1(일치) 0(불일치)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>primary key(1씩 자동증가)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defalut 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreign key for member(email)(cascade)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>primary key not null(cascade)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>primary key(1씩 자동증가)(cascade)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prodnum 검색 -&gt; Name price, content, detail, image 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prodnum 검색 -&gt; 상품 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review_insert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email, prodnum, rename,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content, grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필수 항목 체크 후 DB 저장 -&gt; 등록 시 컨트롤러에서 리뷰 수, 리뷰점수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업데이트 메퍼 실행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품조회(이름)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품조회(kind)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품조회(key)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prodnum_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prodnum 검색 -&gt; key값검색기능(상품디테일보기) -&gt; 상품 정보 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>kind 검색 -&gt; 장르별검색기능 -&gt; 상품 정보 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name 검색 -&gt; 문자열검색기능 -&gt; 상품 정보 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 등록 시 실행 -&gt; 리뷰 수 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 등록 시 실행 -&gt; 리뷰 점수 평균 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cart_delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cartnum 검색 -&gt; 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>총 금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email 검색 -&gt; prodnum, quantity, price, totalprice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reserves</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">price = product_price -&gt; 상품목록에서 가격 데이터 가져옴 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreign key for product(prodnum)(cascade)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prod_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>prod 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(150)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url 형식으로 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defalut 5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member 테이블</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리자, 앱 관련 정보 제공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> -&gt; 1(수정) 0(수정불가) 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>noticeMapper(mysqlNotice)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qnaMapper(mysqlQna)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">totalprice = quantity*price -&gt; 상품목록에서 가격 데이터 가져옴 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니품목수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cart_update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cartnum, quantity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cartnum 검색 -&gt; quantity 수정 totalprice 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cart_order</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cartnum, result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cartnum 검색 -&gt; result(2) 결제 대기 상태로 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email, result(1,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email, result(1,2) 검색 -&gt; 결제완료를 제외한 제품 리스트 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니초기화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cart_result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cartnum, result(2) 검색 -&gt; result(1)로 수정 -&gt; 장바구니 창 열때 실행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email, cart_result(2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 대기상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 대기 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email, result(2) 검색 -&gt; 주문 대기 목록 리스트 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바로 구매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email, prodnum, quantity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_now</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defalut 1(배송전 : 1, 배송중 : 2, 배송완료:3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프라이머리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문처리번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>키</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2@a.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니완료삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cart_redelete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니합계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cart_tot</t>
-  </si>
-  <si>
-    <t>cartnum, result(3 이하) 검색 -&gt; 합계 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cartnum, result(3) 검색 -&gt; 해당 상품 삭제 -&gt; 장바구니 창 열때 실행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 품목 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cartnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cartnum검색 -&gt; result(1) 수정 -&gt; 장바구니에는 존재함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_tot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cartnum, result(2) 검색 -&gt; 합계 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구메페이지합계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email, prodnum, quantity 검색 -&gt; result(2)로 삽입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderidx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 인덱스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>review</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 작성 유무</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderdetailMapper(mysqlOrderDetail)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문상세번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품에 대한 데이터, detailnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreign key for product(prodnum)(cascade)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detail_insert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문금액조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문번호 detailnum 검색 -&gt; 주문 내역 제품 리스트 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문번호 detailnum 검색 -&gt; 주문 주문 금액 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detail_price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문내역삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detail_delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문번호 detailnum 검색 -&gt; 주문 내역 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문내역수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detail_update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailnum, cartnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailnum, cartnum 검색 -&gt; 수정 (관리자전용으로 하는게 좋아보임)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자동 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliverydate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문일자+3일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 총 금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 처리 내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defalut 3(주문전 : 1, 결제대기: 2, 결제완료 : 3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>브론즈:5% 실버:10%, 골드:15%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">payprice </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>할인된 결제 금액</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payprice 의 1%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카트에 담은 날자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 날자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defalut 1(작성전 : 1, 작성완료 : 2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_detail(detailnum)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>saleprice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>할인율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email, detailnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">rankfunction </t>
-  </si>
-  <si>
-    <t xml:space="preserve">salefunction </t>
-  </si>
-  <si>
-    <t xml:space="preserve">payfunction </t>
-  </si>
-  <si>
-    <t xml:space="preserve">reservesfunction </t>
-  </si>
-  <si>
-    <t>계산 함수 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email, detailnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_insert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적립금추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적립금사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>usereserves</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addreserves</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용한 적립금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적립한 적립금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defalut 0(총금액-할인내역-사용적립금)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>defalut 1(주문전 : 1, 주문대기 : 2 주문완료:3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참고사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result 값에 따른 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니 리스트 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매내역페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rankfunction -&gt; 랭크별 할인 비율 계산 -&gt; 할인율 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>salefunction -&gt; 랭크별 할인 금액 -&gt; 할인금액 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>payfunction -&gt; 총 결제 금액 -&gt; 결제금액 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reservesfunction -&gt; 적립금 금액 -&gt; 적립금 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reserves_add</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>reserves_use</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문내역제품조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detail_prod_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_detail_list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문상세내역조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 상세 내역 리스트 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원주문내역조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_email_list</t>
-  </si>
-  <si>
-    <t>주문추가 -&gt; 할인율, 할인금액, 결제금액, 적립금 -&gt; 구매시 실행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문상세번호, 장바구니번호 -&gt; 키(detailnum, cartnum) -&gt; 구매시 실행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email, result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원이 주문한 내력 조회 -&gt; result(1: 배송전, 2: 배송중, 3: 배송완료)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addreservesfunction</t>
-  </si>
-  <si>
-    <t>addreservesfunction -&gt; 현재적립금+결제적립금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>subreservesfunction</t>
-  </si>
-  <si>
-    <t>subreservesfunction -&gt; 현재적립금+결제적립금</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deliveryfunction</t>
-  </si>
-  <si>
-    <t>deliveryfunction -&gt; result 값 검색 -&gt; 해당되는 detailnum 값 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지 qna</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>primary key(cascade)(책 코드 )</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(1000)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comidx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 인덱스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(500)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unique,foreign key for product(cartnum)(cascade)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unique key(cascade)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unique key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unique,foreign key for product(prodnum)(cascade)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>orderresultadd</t>
-  </si>
-  <si>
-    <t>프로시저생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email, detailnum -&gt; 총결제금액, 적립금, 랭크변환 실행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적립금내역 member 테이블에 추가하기 -&gt; 이벤트용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>적립금사용하여 member 테이블 금액 뺴기 -&gt; 제제시 사용?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 댓글추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 댓글 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 댓글 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 댓글 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>commentMapper(mysqlComment)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카드, 네이버, 카카오</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>delivery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결제 방법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요청사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>request</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경비실, 문앞, 무인택배함, 직접수령, 기타</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문내역관리자수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문내역회원수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email, detailnum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>result(상품처리내역), delivery 수정 - 관리자가 주문상태 배송상태 변경 시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address(배송지주소), request(요청사항) - 회원들이 수정할 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_update_admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_update_email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>받는분 전화번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송지 주소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>받는분 성함</t>
+    <t>order_result_add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(mysqlOrderDetail)detail_insert -&gt; 주문 추가 키 2개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(mysqlCart)order_result_add -&gt; 멤버테이블 -&gt; 적립금, 총금액, 등급변화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(mysqlOrder)order_insert -&gt; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order 테이블 필수 칼럼들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailnum, cartnum 등 상품관련</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1941,7 +1981,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2032,19 +2072,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2054,7 +2081,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2154,9 +2181,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2167,6 +2191,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2641,8 +2671,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:M137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2656,7 +2686,7 @@
     <col min="7" max="7" width="4.75" style="5" customWidth="1"/>
     <col min="8" max="8" width="17.125" style="5" customWidth="1"/>
     <col min="9" max="9" width="17" style="5" customWidth="1"/>
-    <col min="10" max="10" width="33.375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="34.625" style="5" customWidth="1"/>
     <col min="11" max="11" width="8.125" style="5" customWidth="1"/>
     <col min="12" max="12" width="60.75" style="5" customWidth="1"/>
     <col min="13" max="16384" width="9" style="5"/>
@@ -2737,13 +2767,13 @@
         <v>213</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>243</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -2791,7 +2821,7 @@
         <v>78</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G6" s="9">
         <v>3</v>
@@ -2800,16 +2830,16 @@
         <v>106</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>251</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -2906,7 +2936,7 @@
         <v>212</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K9" s="13" t="s">
         <v>246</v>
@@ -2963,7 +2993,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>128</v>
@@ -2981,7 +3011,7 @@
         <v>208</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -2989,14 +3019,14 @@
         <v>69</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>98</v>
@@ -3038,10 +3068,10 @@
         <v>141</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K14" s="13" t="s">
         <v>127</v>
@@ -3056,19 +3086,19 @@
         <v>2</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>216</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K15" s="13" t="s">
         <v>127</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="M15" s="15"/>
     </row>
@@ -3077,19 +3107,19 @@
         <v>3</v>
       </c>
       <c r="H16" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="J16" s="10" t="s">
         <v>282</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>284</v>
       </c>
       <c r="K16" s="13" t="s">
         <v>127</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M16" s="15"/>
     </row>
@@ -3104,10 +3134,10 @@
         <v>4</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J17" s="10" t="s">
         <v>138</v>
@@ -3116,7 +3146,7 @@
         <v>127</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="M17" s="15"/>
     </row>
@@ -3149,7 +3179,7 @@
         <v>144</v>
       </c>
       <c r="K18" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L18" s="13" t="s">
         <v>146</v>
@@ -3170,7 +3200,7 @@
         <v>78</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="11"/>
@@ -3206,10 +3236,10 @@
         <v>138</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -3239,10 +3269,10 @@
         <v>138</v>
       </c>
       <c r="K21" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -3283,10 +3313,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>116</v>
@@ -3317,14 +3347,14 @@
         <v>29</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G25" s="17">
         <v>1</v>
@@ -3336,13 +3366,13 @@
         <v>230</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>127</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -3357,7 +3387,7 @@
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G26" s="19">
         <v>2</v>
@@ -3369,13 +3399,13 @@
         <v>231</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K26" s="13" t="s">
         <v>111</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -3398,7 +3428,7 @@
       <c r="J27" s="29"/>
       <c r="K27" s="29"/>
       <c r="L27" s="29" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -3413,7 +3443,7 @@
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G28" s="21"/>
       <c r="H28" s="11"/>
@@ -3421,7 +3451,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -3445,7 +3475,7 @@
         <v>207</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>125</v>
@@ -3454,7 +3484,7 @@
         <v>111</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -3473,19 +3503,19 @@
         <v>4</v>
       </c>
       <c r="H30" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="J30" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>316</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>111</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -3498,19 +3528,19 @@
         <v>5</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I31" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="L31" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -3524,19 +3554,19 @@
         <v>6</v>
       </c>
       <c r="H32" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="L32" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -3559,19 +3589,19 @@
         <v>7</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>111</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -3588,25 +3618,25 @@
         <v>78</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G34" s="17">
         <v>8</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>111</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -3623,25 +3653,25 @@
         <v>78</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G35" s="19">
         <v>9</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I35" s="13" t="s">
         <v>227</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K35" s="13" t="s">
         <v>127</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -3658,25 +3688,25 @@
         <v>78</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G36" s="17">
         <v>10</v>
       </c>
       <c r="H36" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>349</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>351</v>
       </c>
       <c r="K36" s="13" t="s">
         <v>111</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -3717,7 +3747,7 @@
         <v>29</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>10</v>
@@ -3726,25 +3756,25 @@
         <v>78</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G38" s="17">
         <v>12</v>
       </c>
       <c r="H38" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="I38" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="I38" s="16" t="s">
-        <v>332</v>
-      </c>
       <c r="J38" s="16" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K38" s="13" t="s">
         <v>111</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -3765,48 +3795,52 @@
         <v>13</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>355</v>
+        <v>487</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>111</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37" t="s">
-        <v>418</v>
-      </c>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37" t="s">
-        <v>419</v>
-      </c>
-      <c r="K40" s="33">
-        <v>1</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>420</v>
+        <v>412</v>
+      </c>
+      <c r="G40" s="17">
+        <v>14</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -3821,15 +3855,19 @@
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="33">
-        <v>2</v>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="I41" s="37"/>
+      <c r="J41" s="37" t="s">
+        <v>414</v>
+      </c>
+      <c r="K41" s="3">
+        <v>1</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -3837,24 +3875,24 @@
         <v>69</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="36"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="33">
-        <v>3</v>
+        <v>266</v>
+      </c>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="3">
+        <v>2</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -3865,10 +3903,36 @@
         <v>71</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="3">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="36" t="s">
+        <v>488</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="K44" s="3">
+        <v>4</v>
+      </c>
+      <c r="L44" s="16" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
@@ -3877,15 +3941,17 @@
       <c r="B45" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G45" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>362</v>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="K45" s="13">
+        <v>5</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -3904,58 +3970,34 @@
       <c r="E46" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G46" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="J46" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K46" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="L46" s="8" t="s">
-        <v>102</v>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="K46" s="27">
+        <v>6</v>
+      </c>
+      <c r="L46" s="27" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="G47" s="17">
-        <v>1</v>
-      </c>
-      <c r="H47" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="I47" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="J47" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>437</v>
+        <v>454</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -3972,25 +4014,7 @@
         <v>78</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="G48" s="17">
-        <v>2</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>370</v>
+        <v>453</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -4007,25 +4031,7 @@
         <v>78</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="G49" s="17">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -4042,31 +4048,13 @@
         <v>78</v>
       </c>
       <c r="E50" s="3"/>
-      <c r="G50" s="17">
-        <v>5</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>376</v>
-      </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>10</v>
@@ -4075,25 +4063,7 @@
         <v>78</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="G51" s="17">
-        <v>6</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="K51" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="L51" s="3" t="s">
-        <v>381</v>
+        <v>304</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -4134,26 +4104,36 @@
         <v>128</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="J55" s="6" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -4164,10 +4144,48 @@
         <v>71</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
+      <c r="G56" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="J56" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L56" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G57" s="17">
+        <v>1</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="I57" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="J57" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
@@ -4176,15 +4194,23 @@
       <c r="B58" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G58" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="J58" s="6" t="s">
-        <v>257</v>
+      <c r="G58" s="17">
+        <v>2</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -4203,93 +4229,93 @@
       <c r="E59" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G59" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K59" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="L59" s="8" t="s">
-        <v>102</v>
+      <c r="G59" s="17">
+        <v>3</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G60" s="17">
-        <v>1</v>
-      </c>
-      <c r="H60" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="I60" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="J60" s="16" t="s">
-        <v>408</v>
+        <v>5</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>359</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>111</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>436</v>
+        <v>372</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="G61" s="34">
-        <v>2</v>
-      </c>
-      <c r="H61" s="37" t="s">
-        <v>406</v>
+        <v>394</v>
+      </c>
+      <c r="G61" s="17">
+        <v>6</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>373</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="J61" s="16" t="s">
-        <v>407</v>
+        <v>374</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>375</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>128</v>
+        <v>376</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>423</v>
+        <v>377</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -4306,21 +4332,7 @@
         <v>78</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="J62" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>424</v>
+        <v>267</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -4331,26 +4343,12 @@
         <v>77</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E63" s="3"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="J63" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>425</v>
-      </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
@@ -4360,83 +4358,69 @@
         <v>77</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E64" s="3"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="J64" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="K64" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="L64" s="3" t="s">
-        <v>426</v>
-      </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="J65" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="L65" s="3" t="s">
-        <v>441</v>
+        <v>380</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="J65" s="6" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="J66" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>443</v>
+        <v>383</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="J66" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L66" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -4447,25 +4431,29 @@
         <v>128</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="3" t="s">
-        <v>444</v>
+        <v>266</v>
+      </c>
+      <c r="G67" s="17">
+        <v>1</v>
+      </c>
+      <c r="H67" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>489</v>
       </c>
       <c r="J67" s="16" t="s">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -4476,34 +4464,34 @@
         <v>87</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="G68" s="17">
-        <v>3</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>478</v>
+        <v>387</v>
+      </c>
+      <c r="G68" s="33">
+        <v>2</v>
+      </c>
+      <c r="H68" s="36" t="s">
+        <v>402</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>483</v>
+        <v>398</v>
       </c>
       <c r="J68" s="16" t="s">
-        <v>480</v>
+        <v>403</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>481</v>
+        <v>418</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>87</v>
@@ -4513,124 +4501,108 @@
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="G69" s="17">
-        <v>3</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>479</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="G69" s="34"/>
+      <c r="H69" s="34"/>
       <c r="I69" s="3" t="s">
-        <v>484</v>
+        <v>399</v>
       </c>
       <c r="J69" s="16" t="s">
-        <v>480</v>
+        <v>397</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>482</v>
+        <v>419</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="G70" s="17">
-        <v>4</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>410</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="G70" s="34"/>
+      <c r="H70" s="34"/>
       <c r="I70" s="3" t="s">
-        <v>427</v>
+        <v>400</v>
       </c>
       <c r="J70" s="16" t="s">
-        <v>126</v>
+        <v>397</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>465</v>
+        <v>420</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="G71" s="17">
-        <v>5</v>
-      </c>
-      <c r="H71" s="3" t="s">
         <v>411</v>
       </c>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
       <c r="I71" s="3" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="J71" s="16" t="s">
-        <v>126</v>
+        <v>404</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>466</v>
+        <v>421</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="G72" s="17">
-        <v>6</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>432</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="G72" s="34"/>
+      <c r="H72" s="34"/>
       <c r="I72" s="3" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="J72" s="16" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -4641,29 +4613,25 @@
         <v>74</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="G73" s="17">
-        <v>7</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>434</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
       <c r="I73" s="3" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="J73" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L73" s="3" t="s">
         <v>438</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -4674,29 +4642,25 @@
         <v>79</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="G74" s="17">
-        <v>8</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>463</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="G74" s="35"/>
+      <c r="H74" s="35"/>
       <c r="I74" s="3" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="J74" s="16" t="s">
-        <v>401</v>
+        <v>433</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="L74" s="16" t="s">
-        <v>464</v>
+        <v>128</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -4707,91 +4671,153 @@
         <v>79</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
+      <c r="G75" s="17">
+        <v>3</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="J75" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
+      </c>
+      <c r="G76" s="17">
+        <v>3</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="J76" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3" t="s">
-        <v>477</v>
+        <v>471</v>
+      </c>
+      <c r="G77" s="17">
+        <v>4</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="J77" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G78" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="J78" s="6" t="s">
-        <v>260</v>
+      <c r="G78" s="17">
+        <v>5</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="J78" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G79" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I79" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="J79" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K79" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="L79" s="8" t="s">
-        <v>102</v>
+      <c r="G79" s="17">
+        <v>6</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="J79" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G80" s="13">
-        <v>1</v>
-      </c>
-      <c r="H80" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="I80" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="J80" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="K80" s="13" t="s">
+      <c r="G80" s="17">
+        <v>7</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="J80" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="K80" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="L80" s="13" t="s">
-        <v>166</v>
+      <c r="L80" s="3" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -4801,13 +4827,23 @@
       <c r="B81" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11"/>
-      <c r="J81" s="11"/>
-      <c r="K81" s="11"/>
-      <c r="L81" s="11" t="s">
-        <v>167</v>
+      <c r="G81" s="17">
+        <v>8</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="J81" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L81" s="16" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -4826,24 +4862,6 @@
       <c r="E82" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G82" s="13">
-        <v>2</v>
-      </c>
-      <c r="H82" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="I82" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="J82" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="K82" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="L82" s="13" t="s">
-        <v>168</v>
-      </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
@@ -4859,15 +4877,7 @@
         <v>78</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
-      <c r="J83" s="11"/>
-      <c r="K83" s="11"/>
-      <c r="L83" s="11" t="s">
-        <v>167</v>
+        <v>269</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -4884,25 +4894,7 @@
         <v>78</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G84" s="3">
-        <v>3</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="I84" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="K84" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="L84" s="3" t="s">
-        <v>171</v>
+        <v>267</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -4919,25 +4911,17 @@
         <v>78</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="G85" s="16">
-        <v>4</v>
-      </c>
-      <c r="H85" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="I85" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="K85" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="L85" s="3" t="s">
-        <v>176</v>
+        <v>299</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="J85" s="6" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -4954,23 +4938,23 @@
         <v>78</v>
       </c>
       <c r="E86" s="3"/>
-      <c r="G86" s="23">
-        <v>5</v>
-      </c>
-      <c r="H86" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="I86" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="J86" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="K86" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="L86" s="13" t="s">
-        <v>175</v>
+      <c r="G86" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H86" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="J86" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K86" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L86" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
@@ -4987,13 +4971,23 @@
         <v>78</v>
       </c>
       <c r="E87" s="3"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="22"/>
-      <c r="I87" s="22"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
-      <c r="L87" s="11" t="s">
-        <v>310</v>
+      <c r="G87" s="19">
+        <v>1</v>
+      </c>
+      <c r="H87" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="I87" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="J87" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K87" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L87" s="13" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
@@ -5008,23 +5002,13 @@
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
-      <c r="G88" s="13">
-        <v>6</v>
-      </c>
-      <c r="H88" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="I88" s="23" t="s">
-        <v>276</v>
-      </c>
-      <c r="J88" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="K88" s="24" t="s">
-        <v>272</v>
-      </c>
-      <c r="L88" s="23" t="s">
-        <v>279</v>
+      <c r="G88" s="21"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.3">
@@ -5039,15 +5023,23 @@
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
-      <c r="J89" s="22" t="s">
-        <v>278</v>
-      </c>
-      <c r="K89" s="25"/>
-      <c r="L89" s="22" t="s">
-        <v>280</v>
+      <c r="G89" s="19">
+        <v>2</v>
+      </c>
+      <c r="H89" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="I89" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="J89" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K89" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="L89" s="13" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.3">
@@ -5062,23 +5054,13 @@
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
-      <c r="G90" s="17">
-        <v>7</v>
-      </c>
-      <c r="H90" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="I90" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="J90" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="K90" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="L90" s="3" t="s">
-        <v>290</v>
+      <c r="G90" s="21"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
@@ -5096,22 +5078,22 @@
       </c>
       <c r="E91" s="3"/>
       <c r="G91" s="17">
-        <v>8</v>
-      </c>
-      <c r="H91" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="I91" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="J91" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>128</v>
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I91" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="K91" s="13" t="s">
+        <v>127</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>291</v>
+        <v>171</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
@@ -5126,23 +5108,59 @@
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
+      <c r="G92" s="17">
+        <v>4</v>
+      </c>
+      <c r="H92" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="I92" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K92" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G93" s="19">
+        <v>5</v>
+      </c>
+      <c r="H93" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="I93" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="J93" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="K93" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="L93" s="13" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="G94" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="H94" s="6"/>
-      <c r="I94" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="J94" s="26" t="s">
-        <v>471</v>
+        <v>445</v>
+      </c>
+      <c r="G94" s="21"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="22"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -5161,51 +5179,51 @@
       <c r="E95" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G95" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H95" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I95" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="J95" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K95" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="L95" s="8" t="s">
-        <v>102</v>
+      <c r="G95" s="19">
+        <v>6</v>
+      </c>
+      <c r="H95" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="I95" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="J95" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="K95" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="L95" s="23" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G96" s="3">
-        <v>1</v>
-      </c>
-      <c r="H96" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
+        <v>269</v>
+      </c>
+      <c r="G96" s="21"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="K96" s="25"/>
+      <c r="L96" s="22" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
@@ -5221,18 +5239,26 @@
         <v>78</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="G97" s="3">
-        <v>2</v>
-      </c>
-      <c r="H97" s="5" t="s">
-        <v>468</v>
-      </c>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
+        <v>267</v>
+      </c>
+      <c r="G97" s="17">
+        <v>7</v>
+      </c>
+      <c r="H97" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="I97" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="J97" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
@@ -5248,20 +5274,30 @@
         <v>78</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="I98" s="3"/>
-      <c r="J98" s="3"/>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
+        <v>456</v>
+      </c>
+      <c r="G98" s="17">
+        <v>8</v>
+      </c>
+      <c r="H98" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="I98" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="J98" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>87</v>
@@ -5273,26 +5309,18 @@
         <v>78</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="G99" s="16"/>
-      <c r="H99" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
+        <v>455</v>
+      </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>78</v>
@@ -5301,7 +5329,7 @@
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>71</v>
@@ -5311,6 +5339,80 @@
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
+      <c r="G101" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="H101" s="6"/>
+      <c r="I101" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="J101" s="26" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G102" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H102" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="J102" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K102" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L102" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G103" s="3">
+        <v>1</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G104" s="3">
+        <v>2</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G105" s="3"/>
+      <c r="H105" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G106" s="16"/>
+      <c r="H106" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
@@ -5327,7 +5429,7 @@
         <v>208</v>
       </c>
       <c r="J113" s="26" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -5523,7 +5625,7 @@
         <v>208</v>
       </c>
       <c r="J120" s="26" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -5621,7 +5723,7 @@
         <v>78</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G124" s="3">
         <v>3</v>
@@ -5685,13 +5787,13 @@
         <v>70</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -5716,7 +5818,7 @@
         <v>208</v>
       </c>
       <c r="J127" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.3">
@@ -5849,7 +5951,7 @@
         <v>215</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K132" s="3" t="s">
         <v>128</v>
@@ -5869,7 +5971,7 @@
         <v>220</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K133" s="3" t="s">
         <v>127</v>
@@ -5889,13 +5991,13 @@
         <v>221</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K134" s="3" t="s">
         <v>127</v>
       </c>
       <c r="L134" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
@@ -5959,13 +6061,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="G61:G67"/>
-    <mergeCell ref="H61:H67"/>
-    <mergeCell ref="J40:J42"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="G40:G42"/>
+  <mergeCells count="7">
+    <mergeCell ref="G68:G74"/>
+    <mergeCell ref="H68:H74"/>
+    <mergeCell ref="J41:J43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="H41:H46"/>
+    <mergeCell ref="G41:G46"/>
+    <mergeCell ref="I44:I46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51138889789581299" footer="0.51138889789581299"/>
@@ -5990,36 +6093,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C1" s="31" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>332</v>
+      </c>
+      <c r="E1" s="31" t="s">
         <v>338</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -6027,7 +6130,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -6044,7 +6147,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -6061,7 +6164,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -6078,7 +6181,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -6095,7 +6198,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -6112,7 +6215,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C8">
         <v>2</v>

--- a/스프링작업자료/Mapper/mapper기능정리.xlsx
+++ b/스프링작업자료/Mapper/mapper기능정리.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="503">
   <si>
     <t>default sysdate</t>
   </si>
@@ -1889,19 +1889,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">(mysqlOrder)order_insert -&gt; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order 테이블 필수 칼럼들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detailnum, cartnum 등 상품관련</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">cartnum </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartnum r검색 -&gt; result 값 3으로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_result_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cartnum, usereserves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>(mysqlCart)order_result_add -&gt; 멤버테이블 -&gt; 적립금, 총금액, 등급변화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">(mysqlOrder)order_insert -&gt; </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order 테이블 필수 칼럼들</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>detailnum, cartnum 등 상품관련</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2671,8 +2687,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:M137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3925,7 +3941,7 @@
         <v>488</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K44" s="3">
         <v>4</v>
@@ -3945,13 +3961,13 @@
       <c r="H45" s="34"/>
       <c r="I45" s="34"/>
       <c r="J45" s="3" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="K45" s="13">
         <v>5</v>
       </c>
       <c r="L45" s="13" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -3974,13 +3990,13 @@
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
       <c r="J46" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K46" s="27">
         <v>6</v>
       </c>
       <c r="L46" s="27" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
@@ -3998,6 +4014,15 @@
       </c>
       <c r="E47" s="1" t="s">
         <v>454</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">

--- a/스프링작업자료/Mapper/mapper기능정리.xlsx
+++ b/스프링작업자료/Mapper/mapper기능정리.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myjava\javawork\Boramjul_Web\스프링작업자료\Mapper\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14295" windowHeight="11790" tabRatio="500"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="523">
   <si>
     <t>default sysdate</t>
   </si>
@@ -1071,14 +1076,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>리뷰 등록 시 실행 -&gt; 리뷰 수 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>리뷰 등록 시 실행 -&gt; 리뷰 점수 평균 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상품 상태</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1462,10 +1459,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>defalut 3(주문전 : 1, 결제대기: 2, 결제완료 : 3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>브론즈:5% 실버:10%, 골드:15%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1918,13 +1911,104 @@
   </si>
   <si>
     <t>(mysqlCart)order_result_add -&gt; 멤버테이블 -&gt; 적립금, 총금액, 등급변화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment_insert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment_list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment_delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comment_update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매확정시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, detailnum -&gt; result 값 2로 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>renum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">renum </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defalut 1( 초기값 : 1, 프로시저실행후:2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 등록 시 실행 -&gt; 리뷰 수 반환 product 테이블에 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 등록 시 실행 -&gt; 리뷰 점수 평균 반환 product 테이블에 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_lookup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 조회 시 -&gt; lookup+1 -&gt; 업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 추천 수 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 조회 수 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review_recom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰 추천 시 -&gt; recom+1 -&gt; 업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 수 업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comscore_update</t>
+  </si>
+  <si>
+    <t>댓글 작성 시 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2687,8 +2771,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:M137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101:L101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3009,7 +3093,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>128</v>
@@ -3035,10 +3119,10 @@
         <v>69</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
@@ -3084,10 +3168,10 @@
         <v>141</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K14" s="13" t="s">
         <v>127</v>
@@ -3216,7 +3300,7 @@
         <v>78</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G19" s="21"/>
       <c r="H19" s="11"/>
@@ -3329,10 +3413,10 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>116</v>
@@ -3363,14 +3447,14 @@
         <v>29</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G25" s="17">
         <v>1</v>
@@ -3382,13 +3466,13 @@
         <v>230</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K25" s="3" t="s">
         <v>127</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -3415,13 +3499,13 @@
         <v>231</v>
       </c>
       <c r="J26" s="13" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K26" s="13" t="s">
         <v>111</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -3444,7 +3528,7 @@
       <c r="J27" s="29"/>
       <c r="K27" s="29"/>
       <c r="L27" s="29" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -3459,7 +3543,7 @@
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G28" s="21"/>
       <c r="H28" s="11"/>
@@ -3467,7 +3551,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -3491,7 +3575,7 @@
         <v>207</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>125</v>
@@ -3500,7 +3584,7 @@
         <v>111</v>
       </c>
       <c r="L29" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -3519,19 +3603,19 @@
         <v>4</v>
       </c>
       <c r="H30" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="J30" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>111</v>
       </c>
       <c r="L30" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -3544,19 +3628,19 @@
         <v>5</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K31" s="3" t="s">
         <v>270</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -3570,19 +3654,19 @@
         <v>6</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>270</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -3605,19 +3689,19 @@
         <v>7</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>111</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -3640,19 +3724,19 @@
         <v>8</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K34" s="3" t="s">
         <v>111</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -3675,19 +3759,19 @@
         <v>9</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I35" s="13" t="s">
         <v>227</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K35" s="13" t="s">
         <v>127</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -3704,25 +3788,25 @@
         <v>78</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G36" s="17">
         <v>10</v>
       </c>
       <c r="H36" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="J36" s="3" t="s">
-        <v>349</v>
       </c>
       <c r="K36" s="13" t="s">
         <v>111</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -3763,7 +3847,7 @@
         <v>29</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>10</v>
@@ -3772,25 +3856,25 @@
         <v>78</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G38" s="17">
         <v>12</v>
       </c>
       <c r="H38" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="I38" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="I38" s="16" t="s">
-        <v>330</v>
-      </c>
       <c r="J38" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K38" s="13" t="s">
         <v>111</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -3811,52 +3895,52 @@
         <v>13</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K39" s="3" t="s">
         <v>111</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G40" s="17">
         <v>14</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="K40" s="13" t="s">
         <v>127</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -3873,17 +3957,17 @@
       <c r="E41" s="3"/>
       <c r="G41" s="36"/>
       <c r="H41" s="36" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="I41" s="37"/>
       <c r="J41" s="37" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="K41" s="3">
         <v>1</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -3891,10 +3975,10 @@
         <v>69</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
@@ -3908,7 +3992,7 @@
         <v>2</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -3919,7 +4003,7 @@
         <v>71</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
@@ -3931,23 +4015,23 @@
         <v>3</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G44" s="34"/>
       <c r="H44" s="34"/>
       <c r="I44" s="36" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="K44" s="3">
         <v>4</v>
       </c>
       <c r="L44" s="16" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
@@ -3961,13 +4045,13 @@
       <c r="H45" s="34"/>
       <c r="I45" s="34"/>
       <c r="J45" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="K45" s="13">
         <v>5</v>
       </c>
       <c r="L45" s="13" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
@@ -3990,39 +4074,39 @@
       <c r="H46" s="35"/>
       <c r="I46" s="35"/>
       <c r="J46" s="3" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K46" s="27">
         <v>6</v>
       </c>
       <c r="L46" s="27" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
@@ -4039,7 +4123,7 @@
         <v>78</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -4056,7 +4140,7 @@
         <v>78</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
@@ -4079,7 +4163,7 @@
         <v>29</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>10</v>
@@ -4088,7 +4172,7 @@
         <v>78</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -4129,7 +4213,7 @@
         <v>128</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3" t="s">
@@ -4138,17 +4222,17 @@
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G55" s="6" t="s">
         <v>130</v>
@@ -4158,7 +4242,7 @@
         <v>208</v>
       </c>
       <c r="J55" s="6" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.3">
@@ -4169,7 +4253,7 @@
         <v>71</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
@@ -4197,19 +4281,19 @@
         <v>1</v>
       </c>
       <c r="H57" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I57" s="16" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J57" s="16" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>128</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
@@ -4223,19 +4307,19 @@
         <v>2</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>127</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -4258,30 +4342,30 @@
         <v>3</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>78</v>
@@ -4293,54 +4377,54 @@
         <v>5</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>111</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G61" s="17">
         <v>6</v>
       </c>
       <c r="H61" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="J61" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="I61" s="3" t="s">
+      <c r="K61" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="L61" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
@@ -4368,7 +4452,7 @@
         <v>77</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>78</v>
@@ -4383,7 +4467,7 @@
         <v>77</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>78</v>
@@ -4392,17 +4476,17 @@
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>130</v>
@@ -4412,22 +4496,22 @@
         <v>208</v>
       </c>
       <c r="J65" s="6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>71</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>98</v>
@@ -4456,7 +4540,7 @@
         <v>128</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3" t="s">
@@ -4466,19 +4550,19 @@
         <v>1</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="J67" s="16" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="K67" s="3" t="s">
         <v>111</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -4489,34 +4573,34 @@
         <v>87</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G68" s="33">
         <v>2</v>
       </c>
       <c r="H68" s="36" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J68" s="16" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="K68" s="3" t="s">
         <v>128</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>87</v>
@@ -4526,108 +4610,108 @@
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G69" s="34"/>
       <c r="H69" s="34"/>
       <c r="I69" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="J69" s="16" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>128</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G70" s="34"/>
       <c r="H70" s="34"/>
       <c r="I70" s="3" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="J70" s="16" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>128</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G71" s="34"/>
       <c r="H71" s="34"/>
       <c r="I71" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="J71" s="16" t="s">
         <v>401</v>
-      </c>
-      <c r="J71" s="16" t="s">
-        <v>404</v>
       </c>
       <c r="K71" s="3" t="s">
         <v>128</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G72" s="34"/>
       <c r="H72" s="34"/>
       <c r="I72" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="J72" s="16" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>128</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -4638,25 +4722,25 @@
         <v>74</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3" t="s">
-        <v>386</v>
+        <v>510</v>
       </c>
       <c r="G73" s="34"/>
       <c r="H73" s="34"/>
       <c r="I73" s="3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J73" s="16" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K73" s="3" t="s">
         <v>128</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -4667,25 +4751,25 @@
         <v>79</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="G74" s="35"/>
       <c r="H74" s="35"/>
       <c r="I74" s="3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="J74" s="16" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="K74" s="3" t="s">
         <v>128</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -4696,7 +4780,7 @@
         <v>79</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
@@ -4704,76 +4788,76 @@
         <v>3</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="J75" s="16" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="K75" s="3" t="s">
         <v>111</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>74</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G76" s="17">
         <v>3</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="J76" s="16" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>111</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G77" s="17">
         <v>4</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="J77" s="16" t="s">
         <v>126</v>
@@ -4782,7 +4866,7 @@
         <v>111</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -4790,10 +4874,10 @@
         <v>5</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="J78" s="16" t="s">
         <v>126</v>
@@ -4802,7 +4886,7 @@
         <v>111</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -4810,19 +4894,19 @@
         <v>6</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="J79" s="16" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K79" s="3" t="s">
         <v>127</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -4830,19 +4914,19 @@
         <v>7</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="I80" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="J80" s="16" t="s">
         <v>430</v>
-      </c>
-      <c r="J80" s="16" t="s">
-        <v>433</v>
       </c>
       <c r="K80" s="3" t="s">
         <v>127</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -4856,19 +4940,19 @@
         <v>8</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="J81" s="16" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>111</v>
       </c>
       <c r="L81" s="16" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -4887,6 +4971,24 @@
       <c r="E82" s="7" t="s">
         <v>84</v>
       </c>
+      <c r="G82" s="17">
+        <v>9</v>
+      </c>
+      <c r="H82" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="I82" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="J82" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>506</v>
+      </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
@@ -4936,7 +5038,7 @@
         <v>78</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>161</v>
@@ -4946,7 +5048,7 @@
         <v>208</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
@@ -5177,7 +5279,7 @@
         <v>22</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G94" s="21"/>
       <c r="H94" s="22"/>
@@ -5185,7 +5287,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="11"/>
       <c r="L94" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -5225,13 +5327,13 @@
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>87</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>78</v>
@@ -5282,24 +5384,24 @@
         <v>128</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>288</v>
+        <v>511</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>43</v>
+        <v>508</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G98" s="17">
         <v>8</v>
@@ -5317,12 +5419,12 @@
         <v>128</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>289</v>
+        <v>512</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>87</v>
@@ -5334,27 +5436,63 @@
         <v>78</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>455</v>
+        <v>452</v>
+      </c>
+      <c r="G99" s="17">
+        <v>9</v>
+      </c>
+      <c r="H99" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="I99" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="J99" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>448</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>451</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E100" s="3"/>
+      <c r="G100" s="17">
+        <v>10</v>
+      </c>
+      <c r="H100" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="I100" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="J100" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>71</v>
@@ -5364,80 +5502,132 @@
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
-      <c r="G101" s="6" t="s">
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G104" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="H101" s="6"/>
-      <c r="I101" s="4" t="s">
+      <c r="H104" s="6"/>
+      <c r="I104" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="J101" s="26" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G102" s="7" t="s">
+      <c r="J104" s="26" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G105" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H102" s="7" t="s">
+      <c r="H105" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="I102" s="7" t="s">
+      <c r="I105" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="J102" s="7" t="s">
+      <c r="J105" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K102" s="8" t="s">
+      <c r="K105" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="L102" s="8" t="s">
+      <c r="L105" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G103" s="3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G106" s="3">
         <v>1</v>
       </c>
-      <c r="H103" s="5" t="s">
+      <c r="H106" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="K106" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G107" s="3">
+        <v>2</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="L107" s="3"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G108" s="3">
+        <v>3</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K108" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="L108" s="3"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G109" s="16">
+        <v>4</v>
+      </c>
+      <c r="H109" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="I103" s="3"/>
-      <c r="J103" s="3"/>
-      <c r="K103" s="3"/>
-      <c r="L103" s="3"/>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G104" s="3">
-        <v>2</v>
-      </c>
-      <c r="H104" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
-      <c r="K104" s="3"/>
-      <c r="L104" s="3"/>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G105" s="3"/>
-      <c r="H105" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="I105" s="3"/>
-      <c r="J105" s="3"/>
-      <c r="K105" s="3"/>
-      <c r="L105" s="3"/>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="G106" s="16"/>
-      <c r="H106" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3"/>
-      <c r="L106" s="3"/>
+      <c r="I109" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K109" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="L109" s="3"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="G110" s="16">
+        <v>5</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="K110" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
@@ -5454,7 +5644,7 @@
         <v>208</v>
       </c>
       <c r="J113" s="26" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
@@ -5650,7 +5840,7 @@
         <v>208</v>
       </c>
       <c r="J120" s="26" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.3">
@@ -5812,13 +6002,13 @@
         <v>70</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>78</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.3">
@@ -5976,7 +6166,7 @@
         <v>215</v>
       </c>
       <c r="J132" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K132" s="3" t="s">
         <v>128</v>
@@ -5996,7 +6186,7 @@
         <v>220</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K133" s="3" t="s">
         <v>127</v>
@@ -6016,13 +6206,13 @@
         <v>221</v>
       </c>
       <c r="J134" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K134" s="3" t="s">
         <v>127</v>
       </c>
       <c r="L134" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.3">
@@ -6118,36 +6308,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B1" s="31" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C1" s="31" t="s">
+        <v>334</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>330</v>
+      </c>
+      <c r="E1" s="31" t="s">
         <v>336</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>332</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -6155,7 +6345,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -6172,7 +6362,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -6189,7 +6379,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -6206,7 +6396,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -6223,7 +6413,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -6240,7 +6430,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C8">
         <v>2</v>
